--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailkntuacir-my.sharepoint.com/personal/m_abdolalizadeh_email_kntu_ac_ir/Documents/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4FE16887-AE96-574C-93DA-21C955739368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6245E1F9-6DF0-9042-BBD3-F51445A63859}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4FE16887-AE96-574C-93DA-21C955739368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6EE97F-E40F-5641-BF9F-B81255865BF2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="126">
   <si>
     <t>نام و نام خانوادگی</t>
   </si>
@@ -439,9 +439,6 @@
   </si>
   <si>
     <t>عمومی ۶</t>
-  </si>
-  <si>
-    <t>]f</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC84A7-3AB1-7547-B9A1-F1864183AEE2}">
   <dimension ref="A1:DG34"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:DF1"/>
     </sheetView>
   </sheetViews>
@@ -9223,16 +9220,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abdolalizadeh\MangerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDACCA-0122-4D95-8442-753A1CD5EA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9ADD55-3CC9-404E-BCAD-F7B4F801D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25"/>
@@ -9189,21 +9189,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
-  <dimension ref="A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" cm="1">
-        <f t="array" ref="A2">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!C3))</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/project.xlsx
+++ b/project.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Abdolalizadeh\MangerDashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9ADD55-3CC9-404E-BCAD-F7B4F801D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB266E61-D526-634D-9BC0-08AC6F49F386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="2" r:id="rId1"/>
     <sheet name="مشخصات فردی" sheetId="1" r:id="rId2"/>
     <sheet name="شاخص‌های عمومی" sheetId="7" r:id="rId3"/>
-    <sheet name="نمودارها" sheetId="8" r:id="rId4"/>
-    <sheet name="ماه‌ها" sheetId="10" state="hidden" r:id="rId5"/>
+    <sheet name="دیتا عمومی" sheetId="11" r:id="rId4"/>
+    <sheet name="نمودارها" sheetId="8" r:id="rId5"/>
+    <sheet name="ماه‌ها" sheetId="10" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="233">
   <si>
     <t>نام و نام خانوادگی</t>
   </si>
@@ -435,6 +436,330 @@
   </si>
   <si>
     <t>فروردین</t>
+  </si>
+  <si>
+    <t>فرودین ۱</t>
+  </si>
+  <si>
+    <t>فرودین ۲</t>
+  </si>
+  <si>
+    <t>فرودین ۳</t>
+  </si>
+  <si>
+    <t>فرودین ۴</t>
+  </si>
+  <si>
+    <t>فرودین ۵</t>
+  </si>
+  <si>
+    <t>فرودین ۶</t>
+  </si>
+  <si>
+    <t>فرودین ۷</t>
+  </si>
+  <si>
+    <t>فرودین ۸</t>
+  </si>
+  <si>
+    <t>فرودین ۹</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۱</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۲</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۳</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۴</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۵</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۶</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۷</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۸</t>
+  </si>
+  <si>
+    <t>اردیبهشت ۹</t>
+  </si>
+  <si>
+    <t>خرداد ۱</t>
+  </si>
+  <si>
+    <t>خرداد ۲</t>
+  </si>
+  <si>
+    <t>خرداد ۳</t>
+  </si>
+  <si>
+    <t>خرداد ۴</t>
+  </si>
+  <si>
+    <t>خرداد ۵</t>
+  </si>
+  <si>
+    <t>خرداد ۶</t>
+  </si>
+  <si>
+    <t>خرداد ۷</t>
+  </si>
+  <si>
+    <t>خرداد ۸</t>
+  </si>
+  <si>
+    <t>خرداد ۹</t>
+  </si>
+  <si>
+    <t>تیر ۱</t>
+  </si>
+  <si>
+    <t>تیر ۲</t>
+  </si>
+  <si>
+    <t>تیر ۳</t>
+  </si>
+  <si>
+    <t>تیر ۴</t>
+  </si>
+  <si>
+    <t>تیر ۵</t>
+  </si>
+  <si>
+    <t>تیر ۶</t>
+  </si>
+  <si>
+    <t>تیر ۷</t>
+  </si>
+  <si>
+    <t>تیر ۸</t>
+  </si>
+  <si>
+    <t>تیر ۹</t>
+  </si>
+  <si>
+    <t>مرداد ۱</t>
+  </si>
+  <si>
+    <t>مرداد ۲</t>
+  </si>
+  <si>
+    <t>مرداد ۳</t>
+  </si>
+  <si>
+    <t>مرداد ۴</t>
+  </si>
+  <si>
+    <t>مرداد ۵</t>
+  </si>
+  <si>
+    <t>مرداد ۶</t>
+  </si>
+  <si>
+    <t>مرداد ۷</t>
+  </si>
+  <si>
+    <t>مرداد ۸</t>
+  </si>
+  <si>
+    <t>مرداد ۹</t>
+  </si>
+  <si>
+    <t>شهریور ۱</t>
+  </si>
+  <si>
+    <t>شهریور ۲</t>
+  </si>
+  <si>
+    <t>شهریور ۳</t>
+  </si>
+  <si>
+    <t>شهریور ۴</t>
+  </si>
+  <si>
+    <t>شهریور ۵</t>
+  </si>
+  <si>
+    <t>شهریور ۶</t>
+  </si>
+  <si>
+    <t>شهریور ۷</t>
+  </si>
+  <si>
+    <t>شهریور ۸</t>
+  </si>
+  <si>
+    <t>شهریور ۹</t>
+  </si>
+  <si>
+    <t>مهر ۱</t>
+  </si>
+  <si>
+    <t>مهر ۲</t>
+  </si>
+  <si>
+    <t>مهر ۳</t>
+  </si>
+  <si>
+    <t>مهر ۴</t>
+  </si>
+  <si>
+    <t>مهر ۵</t>
+  </si>
+  <si>
+    <t>مهر ۶</t>
+  </si>
+  <si>
+    <t>مهر ۷</t>
+  </si>
+  <si>
+    <t>مهر ۸</t>
+  </si>
+  <si>
+    <t>مهر ۹</t>
+  </si>
+  <si>
+    <t>آبان ۱</t>
+  </si>
+  <si>
+    <t>آبان ۲</t>
+  </si>
+  <si>
+    <t>آبان ۳</t>
+  </si>
+  <si>
+    <t>آبان ۴</t>
+  </si>
+  <si>
+    <t>آبان ۵</t>
+  </si>
+  <si>
+    <t>آبان ۶</t>
+  </si>
+  <si>
+    <t>آبان ۷</t>
+  </si>
+  <si>
+    <t>آبان ۸</t>
+  </si>
+  <si>
+    <t>آبان ۹</t>
+  </si>
+  <si>
+    <t>آذر ۱</t>
+  </si>
+  <si>
+    <t>آذر ۲</t>
+  </si>
+  <si>
+    <t>آذر ۳</t>
+  </si>
+  <si>
+    <t>آذر ۴</t>
+  </si>
+  <si>
+    <t>آذر ۵</t>
+  </si>
+  <si>
+    <t>آذر ۶</t>
+  </si>
+  <si>
+    <t>آذر ۷</t>
+  </si>
+  <si>
+    <t>آذر ۸</t>
+  </si>
+  <si>
+    <t>آذر ۹</t>
+  </si>
+  <si>
+    <t>دی ۱</t>
+  </si>
+  <si>
+    <t>دی ۲</t>
+  </si>
+  <si>
+    <t>دی ۳</t>
+  </si>
+  <si>
+    <t>دی ۴</t>
+  </si>
+  <si>
+    <t>دی ۵</t>
+  </si>
+  <si>
+    <t>دی ۶</t>
+  </si>
+  <si>
+    <t>دی ۷</t>
+  </si>
+  <si>
+    <t>دی ۸</t>
+  </si>
+  <si>
+    <t>دی ۹</t>
+  </si>
+  <si>
+    <t>بهمن ۱</t>
+  </si>
+  <si>
+    <t>بهمن ۲</t>
+  </si>
+  <si>
+    <t>بهمن ۳</t>
+  </si>
+  <si>
+    <t>بهمن ۴</t>
+  </si>
+  <si>
+    <t>بهمن ۵</t>
+  </si>
+  <si>
+    <t>بهمن ۶</t>
+  </si>
+  <si>
+    <t>بهمن ۷</t>
+  </si>
+  <si>
+    <t>بهمن ۸</t>
+  </si>
+  <si>
+    <t>بهمن ۹</t>
+  </si>
+  <si>
+    <t>اسفند ۱</t>
+  </si>
+  <si>
+    <t>اسفند ۲</t>
+  </si>
+  <si>
+    <t>اسفند ۳</t>
+  </si>
+  <si>
+    <t>اسفند ۴</t>
+  </si>
+  <si>
+    <t>اسفند ۵</t>
+  </si>
+  <si>
+    <t>اسفند ۶</t>
+  </si>
+  <si>
+    <t>اسفند ۷</t>
+  </si>
+  <si>
+    <t>اسفند ۸</t>
+  </si>
+  <si>
+    <t>اسفند ۹</t>
   </si>
 </sst>
 </file>
@@ -444,7 +769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000401]0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -479,7 +804,11 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="B Nazanin"/>
-      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Sahel"/>
     </font>
   </fonts>
   <fills count="3">
@@ -523,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -555,6 +884,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,14 +1215,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="23.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -900,7 +1238,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -916,7 +1254,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -932,7 +1270,7 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5">
+    <row r="4" spans="1:14" ht="28" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -945,7 +1283,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="25.5">
+    <row r="5" spans="1:14" ht="28" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -959,7 +1297,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="25.5">
+    <row r="6" spans="1:14" ht="28" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1311,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="25.5">
+    <row r="7" spans="1:14" ht="28" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -987,7 +1325,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="25.5">
+    <row r="8" spans="1:14" ht="28" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1001,7 +1339,7 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="27.75">
+    <row r="10" spans="1:14" ht="31" x14ac:dyDescent="0.45">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="14" t="s">
@@ -1044,17 +1382,17 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="28" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="13"/>
+    <col min="5" max="5" width="7.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>22</v>
       </c>
@@ -1088,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1105,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1139,7 +1477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1156,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>29</v>
       </c>
@@ -1207,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
@@ -1224,7 +1562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1241,7 +1579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
@@ -1275,7 +1613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
@@ -1292,7 +1630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -1309,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>36</v>
       </c>
@@ -1326,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>37</v>
       </c>
@@ -1343,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>38</v>
       </c>
@@ -1360,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
@@ -1411,7 +1749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -1428,7 +1766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>43</v>
       </c>
@@ -1445,7 +1783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
@@ -1462,7 +1800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>45</v>
       </c>
@@ -1479,7 +1817,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>47</v>
       </c>
@@ -1513,7 +1851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
@@ -1530,7 +1868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>49</v>
       </c>
@@ -1547,7 +1885,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>50</v>
       </c>
@@ -1564,7 +1902,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>51</v>
       </c>
@@ -1581,7 +1919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>52</v>
       </c>
@@ -1598,7 +1936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>53</v>
       </c>
@@ -1629,16 +1967,16 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="25.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="28" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="10.875" style="7"/>
-    <col min="3" max="3" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="10.875" style="7"/>
-    <col min="12" max="12" width="12.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="7"/>
+    <col min="1" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111">
+    <row r="1" spans="1:111" x14ac:dyDescent="0.4">
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
@@ -1760,7 +2098,7 @@
       <c r="DE1" s="12"/>
       <c r="DF1" s="12"/>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:111" x14ac:dyDescent="0.4">
       <c r="C2" s="7" t="s">
         <v>118</v>
       </c>
@@ -1981,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="str">
         <f>'مشخصات فردی'!A2</f>
         <v>نفر ۱</v>
@@ -2206,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:111">
+    <row r="4" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="str">
         <f>'مشخصات فردی'!A3</f>
         <v>نفر ۲</v>
@@ -2431,7 +2769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:111">
+    <row r="5" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="str">
         <f>'مشخصات فردی'!A4</f>
         <v>نفر ۳</v>
@@ -2656,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:111">
+    <row r="6" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="str">
         <f>'مشخصات فردی'!A5</f>
         <v>نفر ۴</v>
@@ -2881,7 +3219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:111">
+    <row r="7" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="str">
         <f>'مشخصات فردی'!A6</f>
         <v>نفر ۵</v>
@@ -3106,7 +3444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:111">
+    <row r="8" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="str">
         <f>'مشخصات فردی'!A7</f>
         <v>نفر ۶</v>
@@ -3331,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:111">
+    <row r="9" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="str">
         <f>'مشخصات فردی'!A8</f>
         <v>نفر ۷</v>
@@ -3556,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:111">
+    <row r="10" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A10" s="7" t="str">
         <f>'مشخصات فردی'!A9</f>
         <v>نفر ۸</v>
@@ -3781,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:111">
+    <row r="11" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="str">
         <f>'مشخصات فردی'!A10</f>
         <v>نفر ۹</v>
@@ -4006,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:111">
+    <row r="12" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="str">
         <f>'مشخصات فردی'!A11</f>
         <v>نفر ۱۰</v>
@@ -4231,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:111">
+    <row r="13" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A13" s="7" t="str">
         <f>'مشخصات فردی'!A12</f>
         <v>نفر ۱۱</v>
@@ -4456,7 +4794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:111">
+    <row r="14" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A14" s="7" t="str">
         <f>'مشخصات فردی'!A13</f>
         <v>نفر ۱۲</v>
@@ -4681,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:111">
+    <row r="15" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A15" s="7" t="str">
         <f>'مشخصات فردی'!A14</f>
         <v>نفر ۱۳</v>
@@ -4906,7 +5244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:111">
+    <row r="16" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="str">
         <f>'مشخصات فردی'!A15</f>
         <v>نفر ۱۴</v>
@@ -5131,7 +5469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:111">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="str">
         <f>'مشخصات فردی'!A16</f>
         <v>نفر ۱۵</v>
@@ -5356,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:111">
+    <row r="18" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="str">
         <f>'مشخصات فردی'!A17</f>
         <v>نفر ۱۶</v>
@@ -5581,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:111">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A19" s="7" t="str">
         <f>'مشخصات فردی'!A18</f>
         <v>نفر ۱۷</v>
@@ -5806,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:111">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="str">
         <f>'مشخصات فردی'!A19</f>
         <v>نفر ۱۸</v>
@@ -6031,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:111">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="str">
         <f>'مشخصات فردی'!A20</f>
         <v>نفر ۱۹</v>
@@ -6256,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:111">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="str">
         <f>'مشخصات فردی'!A21</f>
         <v>نفر ۲۰</v>
@@ -6481,7 +6819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:111">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A23" s="7" t="str">
         <f>'مشخصات فردی'!A22</f>
         <v>نفر ۲۱</v>
@@ -6706,7 +7044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:111">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="str">
         <f>'مشخصات فردی'!A23</f>
         <v>نفر ۲۲</v>
@@ -6931,7 +7269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:111">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A25" s="7" t="str">
         <f>'مشخصات فردی'!A24</f>
         <v>نفر ۲۳</v>
@@ -7156,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:111">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A26" s="7" t="str">
         <f>'مشخصات فردی'!A25</f>
         <v>نفر ۲۴</v>
@@ -7381,7 +7719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:111">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A27" s="7" t="str">
         <f>'مشخصات فردی'!A26</f>
         <v>نفر ۲۵</v>
@@ -7606,7 +7944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:111">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A28" s="7" t="str">
         <f>'مشخصات فردی'!A27</f>
         <v>نفر ۲۶</v>
@@ -7831,7 +8169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:111">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A29" s="7" t="str">
         <f>'مشخصات فردی'!A28</f>
         <v>نفر ۲۷</v>
@@ -8056,7 +8394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:111">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A30" s="7" t="str">
         <f>'مشخصات فردی'!A29</f>
         <v>نفر ۲۸</v>
@@ -8281,7 +8619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:111">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A31" s="7" t="str">
         <f>'مشخصات فردی'!A30</f>
         <v>نفر ۲۹</v>
@@ -8506,7 +8844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:111">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="str">
         <f>'مشخصات فردی'!A31</f>
         <v>نفر ۳۰</v>
@@ -8731,7 +9069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:111">
+    <row r="33" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="str">
         <f>'مشخصات فردی'!A32</f>
         <v>نفر ۳۱</v>
@@ -8956,7 +9294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:111">
+    <row r="34" spans="1:111" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="str">
         <f>'مشخصات فردی'!A33</f>
         <v>نفر ۳۲</v>
@@ -9188,94 +9526,553 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B262EF-9F76-0348-8484-1470CF86D52C}">
+  <dimension ref="A1:DD2"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD1" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF1" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI1" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ1" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL1" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM1" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO1" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP1" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ1" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU1" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV1" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW1" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="AX1" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA1" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB1" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BD1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="BE1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG1" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="BJ1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="BN1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="BP1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT1" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU1" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV1" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW1" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BX1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="BY1" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="BZ1" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="CA1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="CB1" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="CC1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CD1" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE1" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF1" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="CG1" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH1" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI1" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="CK1" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="CL1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="CM1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN1" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="CO1" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="CP1" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="CQ1" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR1" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CS1" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="CT1" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="CU1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV1" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="CW1" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX1" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="CY1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="CZ1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="DA1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="DC1" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="DD1" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" cm="1">
+        <f t="array" ref="A2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!C3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!C4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!C5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!C6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!C7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!C8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!C9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!C10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!C11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!C12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!C13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!C14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!C15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!C16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!C17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!C18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!C19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!C20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!C21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!C22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!C23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!C24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!C25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!C26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!C27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!C28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!C29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!C30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!C31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!C32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!C33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!C3)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" cm="1">
+        <f t="array" ref="B2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!D3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!D4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!D5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!D6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!D7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!D8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!D9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!D10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!D11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!D12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!D13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!D14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!D15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!D16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!D17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!D18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!D19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!D20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!D21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!D22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!D23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!D24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!D25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!D26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!D27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!D28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!D29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!D30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!D31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!D32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!D33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!D3)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="15" cm="1">
+        <f t="array" ref="C2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!E3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!E4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!E5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!E6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!E7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!E8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!E9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!E10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!E11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!E12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!E13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!E14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!E15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!E16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!E17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!E18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!E19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!E20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!E21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!E22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!E23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!E24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!E25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!E26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!E27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!E28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!E29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!E30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!E31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!E32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!E33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!E3)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" cm="1">
+        <f t="array" ref="D2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!F3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!F4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!F5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!F6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!F7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!F8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!F9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!F10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!F11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!F12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!F13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!F14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!F15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!F16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!F17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!F18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!F19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!F20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!F21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!F22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!F23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!F24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!F25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!F26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!F27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!F28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!F29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!F30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!F31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!F32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!F33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!F3)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" cm="1">
+        <f t="array" ref="E2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!G3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!G4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!G5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!G6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!G7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!G8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!G9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!G10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!G11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!G12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!G13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!G14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!G15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!G16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!G17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!G18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!G19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!G20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!G21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!G22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!G23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!G24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!G25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!G26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!G27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!G28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!G29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!G30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!G31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!G32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!G33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!G3)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" cm="1">
+        <f t="array" ref="F2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!H3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!H4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!H5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!H6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!H7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!H8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!H9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!H10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!H11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!H12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!H13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!H14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!H15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!H16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!H17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!H18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!H19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!H20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!H21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!H22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!H23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!H24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!H25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!H26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!H27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!H28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!H29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!H30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!H31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!H32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!H33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!H3)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="15" cm="1">
+        <f t="array" ref="G2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!I3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!I4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!I5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!I6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!I7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!I8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!I9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!I10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!I11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!I12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!I13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!I14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!I15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!I16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!I17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!I18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!I19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!I20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!I21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!I22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!I23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!I24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!I25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!I26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!I27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!I28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!I29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!I30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!I31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!I32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!I33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!I3)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" cm="1">
+        <f t="array" ref="H2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!J3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!J4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!J5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!J6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!J7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!J8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!J9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!J10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!J11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!J12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!J13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!J14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!J15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!J16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!J17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!J18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!J19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!J20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!J21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!J22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!J23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!J24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!J25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!J26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!J27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!J28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!J29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!J30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!J31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!J32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!J33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!J3)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15" cm="1">
+        <f t="array" ref="I2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!K3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!K4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!K5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!K6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!K7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!K8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!K9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!K10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!K11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!K12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!K13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!K14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!K15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!K16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!K17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!K18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!K19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!K20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!K21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!K22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!K23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!K24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!K25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!K26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!K27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!K28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!K29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!K30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!K31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!K32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!K33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!K3)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" cm="1">
+        <f t="array" ref="J2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!L3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!L4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!L5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!L6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!L7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!L8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!L9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!L10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!L11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!L12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!L13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!L14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!L15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!L16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!L17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!L18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!L19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!L20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!L21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!L22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!L23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!L24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!L25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!L26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!L27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!L28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!L29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!L30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!L31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!L32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!L33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!L3)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" cm="1">
+        <f t="array" ref="K2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!M3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!M4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!M5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!M6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!M7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!M8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!M9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!M10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!M11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!M12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!M13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!M14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!M15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!M16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!M17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!M18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!M19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!M20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!M21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!M22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!M23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!M24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!M25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!M26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!M27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!M28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!M29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!M30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!M31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!M32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!M33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!M3)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="15" cm="1">
+        <f t="array" ref="L2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!N3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!N4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!N5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!N6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!N7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!N8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!N9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!N10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!N11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!N12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!N13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!N14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!N15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!N16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!N17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!N18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!N19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!N20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!N21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!N22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!N23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!N24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!N25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!N26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!N27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!N28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!N29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!N30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!N31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!N32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!N33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!N3)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="15" cm="1">
+        <f t="array" ref="M2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!O3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!O4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!O5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!O6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!O7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!O8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!O9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!O10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!O11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!O12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!O13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!O14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!O15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!O16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!O17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!O18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!O19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!O20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!O21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!O22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!O23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!O24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!O25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!O26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!O27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!O28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!O29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!O30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!O31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!O32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!O33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!O3)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" cm="1">
+        <f t="array" ref="N2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!P3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!P4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!P5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!P6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!P7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!P8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!P9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!P10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!P11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!P12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!P13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!P14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!P15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!P16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!P17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!P18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!P19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!P20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!P21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!P22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!P23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!P24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!P25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!P26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!P27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!P28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!P29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!P30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!P31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!P32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!P33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!P3)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="15" cm="1">
+        <f t="array" ref="O2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Q3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Q4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Q5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Q6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Q7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Q8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Q9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Q10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Q11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Q12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Q13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Q14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Q15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Q16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Q17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Q18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Q19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Q20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Q21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Q22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Q23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Q24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Q25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Q26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Q27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Q28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Q29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Q30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Q31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Q32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Q33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="15" cm="1">
+        <f t="array" ref="P2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!R3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!R4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!R5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!R6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!R7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!R8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!R9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!R10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!R11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!R12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!R13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!R14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!R15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!R16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!R17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!R18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!R19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!R20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!R21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!R22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!R23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!R24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!R25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!R26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!R27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!R28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!R29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!R30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!R31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!R32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!R33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="15" cm="1">
+        <f t="array" ref="Q2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!R3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!R4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!R5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!R6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!R7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!R8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!R9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!R10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!R11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!R12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!R13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!R14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!R15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!R16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!R17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!R18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!R19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!R20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!R21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!R22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!R23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!R24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!R25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!R26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!R27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!R28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!R29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!R30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!R31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!R32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!R33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!R3)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="15" cm="1">
+        <f t="array" ref="R2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!T3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!T4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!T5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!T6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!T7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!T8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!T9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!T10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!T11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!T12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!T13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!T14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!T15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!T16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!T17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!T18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!T19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!T20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!T21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!T22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!T23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!T24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!T25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!T26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!T27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!T28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!T29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!T30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!T31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!T32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!T33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!T3)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="15" cm="1">
+        <f t="array" ref="S2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!U3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!U4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!U5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!U6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!U7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!U8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!U9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!U10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!U11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!U12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!U13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!U14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!U15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!U16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!U17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!U18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!U19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!U20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!U21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!U22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!U23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!U24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!U25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!U26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!U27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!U28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!U29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!U30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!U31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!U32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!U33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!U3)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" cm="1">
+        <f t="array" ref="T2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!V3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V3)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="15" cm="1">
+        <f t="array" ref="U2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!V3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V3)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="15" cm="1">
+        <f t="array" ref="V2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!X3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!X4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!X5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!X6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!X7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!X8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!X9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!X10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!X11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!X12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!X13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!X14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!X15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!X16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!X17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!X18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!X19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!X20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!X21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!X22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!X23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!X24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!X25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!X26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!X27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!X28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!X29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!X30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!X31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!X32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!X33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!X3)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="15" cm="1">
+        <f t="array" ref="W2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Y3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Y4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Y5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Y6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Y7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Y8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Y9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Y10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Y11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Y12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Y13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Y14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Y15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Y16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Y17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Y18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Y19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Y20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Y21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Y22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Y23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Y24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Y25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Y26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Y27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Y28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Y29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Y30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Y31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Y32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Y33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Y3)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="15" cm="1">
+        <f t="array" ref="X2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Z3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Z4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Z5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Z6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Z7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Z8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Z9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Z10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Z11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Z12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Z13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Z14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Z15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Z16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Z17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Z18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Z19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Z20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Z21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Z22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Z23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Z24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Z25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Z26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Z27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Z28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Z29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Z30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Z31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Z32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Z33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Z3)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15" cm="1">
+        <f t="array" ref="Y2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="15" cm="1">
+        <f t="array" ref="Z2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AB3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="15" cm="1">
+        <f t="array" ref="AA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AC3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="15" cm="1">
+        <f t="array" ref="AB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AD3)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A13"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA123D2-0336-694E-A8F7-870F75EFF230}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'شاخص‌های عمومی'!G1</f>
         <v>فروردین</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'شاخص‌های عمومی'!P1</f>
         <v>اردیبهشت</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'شاخص‌های عمومی'!Y1</f>
         <v>خرداد</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'شاخص‌های عمومی'!AH1</f>
         <v>تیر</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'شاخص‌های عمومی'!AQ1</f>
         <v>مرداد</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'شاخص‌های عمومی'!AZ1</f>
         <v>شهریور</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'شاخص‌های عمومی'!BI1</f>
         <v>مهر</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>'شاخص‌های عمومی'!BR1</f>
         <v>آبان</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>'شاخص‌های عمومی'!CA1</f>
         <v>آذر</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'شاخص‌های عمومی'!CJ1</f>
         <v>دی</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'شاخص‌های عمومی'!CS1</f>
         <v>بهمن</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'شاخص‌های عمومی'!DB1</f>
         <v>اسفند</v>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E24039-B7AF-7D48-9BD4-ED5F7C4FD348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B664389-E649-4543-8F6D-7EE664857EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC84A7-3AB1-7547-B9A1-F1864183AEE2}">
   <dimension ref="A1:DO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="DB1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="CI1" workbookViewId="0">
       <selection activeCell="DK3" sqref="DK3"/>
     </sheetView>
   </sheetViews>
@@ -12239,15 +12239,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" cm="1">
         <f t="array" ref="A1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!A2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!J2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!S2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AB2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AK2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AT2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BC2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BL2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BU2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CD2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CM2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CV2*'شاخص‌های عمومی'!DG3)</f>
         <v>3</v>
@@ -12267,6 +12267,10 @@
       <c r="E1" t="e" cm="1">
         <f t="array" ref="E1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!E1*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!N2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!W2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AF2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AO2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AX2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BG2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BP2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BY2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CH2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CQ2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CZ2*'شاخص‌های عمومی'!DK3)</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="F1" cm="1">
+        <f t="array" ref="F1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!F2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!O2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!X2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AG2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AP2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AY2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BH2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BQ2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BZ2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CI2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CR2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!DA2*'شاخص‌های عمومی'!DL3)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B664389-E649-4543-8F6D-7EE664857EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9A4AD-589A-2C40-B764-8BA441749034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="2" r:id="rId1"/>
@@ -1527,7 +1527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7B7624-C069-6E40-9031-448EC82194BB}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" view="pageBreakPreview" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" view="pageBreakPreview" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B5" s="6" cm="1">
         <f t="array" ref="B5">_xlfn.SWITCH(B4,'مشخصات فردی'!A2,'مشخصات فردی'!B2,'مشخصات فردی'!A3,'مشخصات فردی'!B3,'مشخصات فردی'!A4,'مشخصات فردی'!B4,'مشخصات فردی'!A5,'مشخصات فردی'!B5,'مشخصات فردی'!A6,'مشخصات فردی'!B6,'مشخصات فردی'!A7,'مشخصات فردی'!B7,'مشخصات فردی'!A8,'مشخصات فردی'!B8,'مشخصات فردی'!A9,'مشخصات فردی'!B9,'مشخصات فردی'!A10,'مشخصات فردی'!B10,'مشخصات فردی'!A11,'مشخصات فردی'!B11,'مشخصات فردی'!A12,'مشخصات فردی'!B12,'مشخصات فردی'!A13,'مشخصات فردی'!B13,'مشخصات فردی'!A14,'مشخصات فردی'!B14,'مشخصات فردی'!A15,'مشخصات فردی'!B15,'مشخصات فردی'!A16,'مشخصات فردی'!B16,'مشخصات فردی'!A17,'مشخصات فردی'!B17,'مشخصات فردی'!A18,'مشخصات فردی'!B18,'مشخصات فردی'!A19,'مشخصات فردی'!B19,'مشخصات فردی'!A20,'مشخصات فردی'!B20,'مشخصات فردی'!A21,'مشخصات فردی'!B21,'مشخصات فردی'!A22,'مشخصات فردی'!B22,'مشخصات فردی'!A23,'مشخصات فردی'!B23,'مشخصات فردی'!A24,'مشخصات فردی'!B24,'مشخصات فردی'!A25,'مشخصات فردی'!B25,'مشخصات فردی'!A26,'مشخصات فردی'!B26,'مشخصات فردی'!A27,'مشخصات فردی'!B27,'مشخصات فردی'!A28,'مشخصات فردی'!B28,'مشخصات فردی'!A29,'مشخصات فردی'!B29,'مشخصات فردی'!A30,'مشخصات فردی'!B30,'مشخصات فردی'!A31,'مشخصات فردی'!B31,'مشخصات فردی'!A32,'مشخصات فردی'!B32,'مشخصات فردی'!A33,'مشخصات فردی'!B33)</f>
-        <v>33333</v>
+        <v>11111</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B6" s="3" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.SWITCH(B4,'مشخصات فردی'!A2,'مشخصات فردی'!C2,'صفحه اصلی'!A4,'مشخصات فردی'!C3,'مشخصات فردی'!A4,'مشخصات فردی'!C4,'مشخصات فردی'!A5,'مشخصات فردی'!C5,'مشخصات فردی'!A6,'مشخصات فردی'!C6,'مشخصات فردی'!A7,'مشخصات فردی'!C7,'مشخصات فردی'!A8,'مشخصات فردی'!C8,'مشخصات فردی'!A9,'مشخصات فردی'!C9,'مشخصات فردی'!A10,'مشخصات فردی'!C10,'مشخصات فردی'!A11,'مشخصات فردی'!C11,'مشخصات فردی'!A12,'مشخصات فردی'!C12,'مشخصات فردی'!A13,'مشخصات فردی'!C13,'مشخصات فردی'!A14,'مشخصات فردی'!C14,'مشخصات فردی'!A15,'مشخصات فردی'!C15,'مشخصات فردی'!A16,'مشخصات فردی'!C16,'مشخصات فردی'!A17,'مشخصات فردی'!C17,'مشخصات فردی'!A18,'مشخصات فردی'!C18,'مشخصات فردی'!A19,'مشخصات فردی'!C19,'مشخصات فردی'!A20,'مشخصات فردی'!C20,'مشخصات فردی'!A21,'مشخصات فردی'!C21,'مشخصات فردی'!A22,'مشخصات فردی'!C22,'مشخصات فردی'!A23,'مشخصات فردی'!C23,'مشخصات فردی'!A24,'مشخصات فردی'!C24,'مشخصات فردی'!A25,'مشخصات فردی'!C25,'مشخصات فردی'!A26,'مشخصات فردی'!C26,'مشخصات فردی'!A27,'مشخصات فردی'!C27,'مشخصات فردی'!A28,'مشخصات فردی'!C28,'مشخصات فردی'!A29,'مشخصات فردی'!C29,'مشخصات فردی'!A30,'مشخصات فردی'!C30,'مشخصات فردی'!A31,'مشخصات فردی'!C31,'مشخصات فردی'!A32,'مشخصات فردی'!C32,'مشخصات فردی'!A33,'مشخصات فردی'!C33)</f>
-        <v>قسمت ۳</v>
+        <v>قسمت ۱</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="B7" s="3" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.SWITCH(B4,'مشخصات فردی'!A2,'مشخصات فردی'!D2,'صفحه اصلی'!A4,'مشخصات فردی'!D3,'مشخصات فردی'!A4,'مشخصات فردی'!D4,'مشخصات فردی'!A5,'مشخصات فردی'!D5,'مشخصات فردی'!A6,'مشخصات فردی'!D6,'مشخصات فردی'!A7,'مشخصات فردی'!D7,'مشخصات فردی'!A8,'مشخصات فردی'!D8,'مشخصات فردی'!A9,'مشخصات فردی'!D9,'مشخصات فردی'!A10,'مشخصات فردی'!D10,'مشخصات فردی'!A11,'مشخصات فردی'!D11,'مشخصات فردی'!A12,'مشخصات فردی'!D12,'مشخصات فردی'!A13,'مشخصات فردی'!D13,'مشخصات فردی'!A14,'مشخصات فردی'!D14,'مشخصات فردی'!A15,'مشخصات فردی'!D15,'مشخصات فردی'!A16,'مشخصات فردی'!D16,'مشخصات فردی'!A17,'مشخصات فردی'!D17,'مشخصات فردی'!A18,'مشخصات فردی'!D18,'مشخصات فردی'!A19,'مشخصات فردی'!D19,'مشخصات فردی'!A20,'مشخصات فردی'!D20,'مشخصات فردی'!A21,'مشخصات فردی'!D21,'مشخصات فردی'!A22,'مشخصات فردی'!D22,'مشخصات فردی'!A23,'مشخصات فردی'!D23,'مشخصات فردی'!A24,'مشخصات فردی'!D24,'مشخصات فردی'!A25,'مشخصات فردی'!D25,'مشخصات فردی'!A26,'مشخصات فردی'!D26,'مشخصات فردی'!A27,'مشخصات فردی'!D27,'مشخصات فردی'!A28,'مشخصات فردی'!D28,'مشخصات فردی'!A29,'مشخصات فردی'!D29,'مشخصات فردی'!A30,'مشخصات فردی'!D30,'مشخصات فردی'!A31,'مشخصات فردی'!D31,'مشخصات فردی'!A32,'مشخصات فردی'!D32,'مشخصات فردی'!A33,'مشخصات فردی'!D33)</f>
-        <v>مسئولیت ۳</v>
+        <v>مسئولیت ۱</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B8" s="3" cm="1">
         <f t="array" ref="B8">_xlfn.SWITCH(B4,'مشخصات فردی'!A2,'مشخصات فردی'!E2,'صفحه اصلی'!A4,'مشخصات فردی'!E3,'مشخصات فردی'!A4,'مشخصات فردی'!E4,'مشخصات فردی'!A5,'مشخصات فردی'!E5,'مشخصات فردی'!A6,'مشخصات فردی'!E6,'مشخصات فردی'!A7,'مشخصات فردی'!E7,'مشخصات فردی'!A8,'مشخصات فردی'!E8,'مشخصات فردی'!A9,'مشخصات فردی'!E9,'مشخصات فردی'!A10,'مشخصات فردی'!E10,'مشخصات فردی'!A11,'مشخصات فردی'!E11,'مشخصات فردی'!A12,'مشخصات فردی'!E12,'مشخصات فردی'!A13,'مشخصات فردی'!E13,'مشخصات فردی'!A14,'مشخصات فردی'!E14,'مشخصات فردی'!A15,'مشخصات فردی'!E15,'مشخصات فردی'!A16,'مشخصات فردی'!E16,'مشخصات فردی'!A17,'مشخصات فردی'!E17,'مشخصات فردی'!A18,'مشخصات فردی'!E18,'مشخصات فردی'!A19,'مشخصات فردی'!E19,'مشخصات فردی'!A20,'مشخصات فردی'!E20,'مشخصات فردی'!A21,'مشخصات فردی'!E21,'مشخصات فردی'!A22,'مشخصات فردی'!E22,'مشخصات فردی'!A23,'مشخصات فردی'!E23,'مشخصات فردی'!A24,'مشخصات فردی'!E24,'مشخصات فردی'!A25,'مشخصات فردی'!E25,'مشخصات فردی'!A26,'مشخصات فردی'!E26,'مشخصات فردی'!A27,'مشخصات فردی'!E27,'مشخصات فردی'!A28,'مشخصات فردی'!E28,'مشخصات فردی'!A29,'مشخصات فردی'!E29,'مشخصات فردی'!A30,'مشخصات فردی'!E30,'مشخصات فردی'!A31,'مشخصات فردی'!E31,'مشخصات فردی'!A32,'مشخصات فردی'!E32,'مشخصات فردی'!A33,'مشخصات فردی'!E33)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2279,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC84A7-3AB1-7547-B9A1-F1864183AEE2}">
   <dimension ref="A1:DO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="CI1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="CH1" workbookViewId="0">
       <selection activeCell="DK3" sqref="DK3"/>
     </sheetView>
   </sheetViews>
@@ -11737,27 +11737,27 @@
     <row r="2" spans="1:108" ht="24" x14ac:dyDescent="0.2">
       <c r="A2" s="15" cm="1">
         <f t="array" ref="A2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!C3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!C4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!C5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!C6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!C7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!C8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!C9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!C10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!C11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!C12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!C13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!C14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!C15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!C16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!C17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!C18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!C19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!C20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!C21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!C22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!C23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!C24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!C25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!C26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!C27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!C28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!C29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!C30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!C31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!C32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!C33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!C3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="14" cm="1">
         <f t="array" ref="B2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!D3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!D4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!D5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!D6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!D7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!D8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!D9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!D10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!D11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!D12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!D13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!D14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!D15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!D16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!D17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!D18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!D19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!D20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!D21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!D22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!D23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!D24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!D25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!D26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!D27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!D28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!D29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!D30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!D31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!D32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!D33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!D3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13" cm="1">
         <f t="array" ref="C2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!E3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!E4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!E5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!E6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!E7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!E8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!E9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!E10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!E11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!E12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!E13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!E14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!E15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!E16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!E17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!E18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!E19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!E20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!E21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!E22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!E23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!E24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!E25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!E26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!E27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!E28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!E29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!E30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!E31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!E32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!E33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!E3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="13" cm="1">
         <f t="array" ref="D2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!F3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!F4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!F5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!F6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!F7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!F8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!F9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!F10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!F11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!F12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!F13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!F14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!F15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!F16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!F17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!F18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!F19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!F20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!F21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!F22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!F23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!F24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!F25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!F26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!F27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!F28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!F29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!F30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!F31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!F32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!F33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!F3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="13" cm="1">
         <f t="array" ref="E2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!G3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!G4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!G5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!G6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!G7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!G8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!G9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!G10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!G11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!G12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!G13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!G14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!G15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!G16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!G17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!G18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!G19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!G20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!G21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!G22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!G23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!G24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!G25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!G26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!G27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!G28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!G29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!G30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!G31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!G32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!G33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!G3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="13" cm="1">
         <f t="array" ref="F2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!H3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!H4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!H5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!H6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!H7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!H8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!H9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!H10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!H11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!H12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!H13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!H14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!H15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!H16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!H17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!H18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!H19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!H20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!H21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!H22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!H23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!H24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!H25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!H26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!H27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!H28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!H29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!H30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!H31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!H32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!H33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!H3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="13" cm="1">
         <f t="array" ref="G2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!I3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!I4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!I5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!I6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!I7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!I8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!I9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!I10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!I11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!I12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!I13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!I14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!I15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!I16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!I17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!I18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!I19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!I20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!I21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!I22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!I23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!I24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!I25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!I26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!I27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!I28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!I29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!I30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!I31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!I32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!I33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!I3)</f>
@@ -11773,27 +11773,27 @@
       </c>
       <c r="J2" s="13" cm="1">
         <f t="array" ref="J2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!L3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!L4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!L5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!L6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!L7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!L8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!L9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!L10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!L11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!L12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!L13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!L14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!L15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!L16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!L17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!L18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!L19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!L20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!L21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!L22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!L23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!L24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!L25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!L26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!L27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!L28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!L29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!L30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!L31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!L32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!L33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!L3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2" s="13" cm="1">
         <f t="array" ref="K2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!M3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!M4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!M5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!M6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!M7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!M8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!M9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!M10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!M11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!M12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!M13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!M14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!M15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!M16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!M17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!M18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!M19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!M20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!M21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!M22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!M23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!M24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!M25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!M26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!M27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!M28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!M29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!M30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!M31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!M32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!M33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!M3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" s="13" cm="1">
         <f t="array" ref="L2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!N3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!N4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!N5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!N6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!N7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!N8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!N9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!N10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!N11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!N12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!N13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!N14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!N15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!N16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!N17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!N18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!N19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!N20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!N21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!N22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!N23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!N24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!N25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!N26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!N27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!N28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!N29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!N30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!N31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!N32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!N33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!N3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2" s="13" cm="1">
         <f t="array" ref="M2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!O3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!O4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!O5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!O6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!O7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!O8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!O9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!O10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!O11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!O12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!O13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!O14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!O15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!O16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!O17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!O18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!O19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!O20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!O21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!O22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!O23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!O24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!O25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!O26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!O27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!O28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!O29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!O30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!O31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!O32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!O33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!O3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" s="13" cm="1">
         <f t="array" ref="N2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!P3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!P4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!P5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!P6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!P7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!P8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!P9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!P10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!P11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!P12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!P13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!P14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!P15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!P16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!P17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!P18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!P19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!P20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!P21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!P22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!P23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!P24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!P25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!P26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!P27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!P28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!P29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!P30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!P31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!P32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!P33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!P3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O2" s="13" cm="1">
         <f t="array" ref="O2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Q3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Q4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Q5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Q6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Q7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Q8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Q9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Q10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Q11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Q12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Q13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Q14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Q15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Q16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Q17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Q18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Q19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Q20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Q21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Q22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Q23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Q24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Q25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Q26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Q27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Q28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Q29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Q30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Q31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Q32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Q33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Q3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2" s="13" cm="1">
         <f t="array" ref="P2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!R3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!R4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!R5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!R6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!R7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!R8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!R9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!R10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!R11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!R12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!R13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!R14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!R15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!R16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!R17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!R18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!R19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!R20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!R21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!R22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!R23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!R24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!R25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!R26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!R27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!R28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!R29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!R30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!R31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!R32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!R33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!R3)</f>
@@ -11809,27 +11809,27 @@
       </c>
       <c r="S2" s="13" cm="1">
         <f t="array" ref="S2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!U3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!U4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!U5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!U6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!U7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!U8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!U9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!U10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!U11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!U12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!U13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!U14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!U15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!U16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!U17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!U18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!U19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!U20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!U21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!U22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!U23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!U24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!U25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!U26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!U27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!U28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!U29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!U30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!U31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!U32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!U33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!U3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T2" s="13" cm="1">
         <f t="array" ref="T2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!V3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" s="13" cm="1">
         <f t="array" ref="U2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!V3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V2" s="13" cm="1">
         <f t="array" ref="V2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!X3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!X4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!X5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!X6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!X7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!X8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!X9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!X10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!X11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!X12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!X13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!X14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!X15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!X16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!X17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!X18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!X19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!X20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!X21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!X22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!X23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!X24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!X25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!X26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!X27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!X28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!X29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!X30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!X31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!X32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!X33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!X3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W2" s="13" cm="1">
         <f t="array" ref="W2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Y3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Y4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Y5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Y6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Y7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Y8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Y9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Y10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Y11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Y12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Y13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Y14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Y15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Y16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Y17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Y18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Y19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Y20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Y21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Y22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Y23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Y24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Y25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Y26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Y27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Y28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Y29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Y30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Y31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Y32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Y33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Y3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2" s="13" cm="1">
         <f t="array" ref="X2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!Z3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Z4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Z5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Z6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Z7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Z8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Z9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Z10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Z11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Z12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Z13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Z14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Z15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Z16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Z17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Z18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Z19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Z20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Z21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Z22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Z23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Z24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Z25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Z26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Z27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Z28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Z29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Z30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Z31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Z32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Z33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Z3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="13" cm="1">
         <f t="array" ref="Y2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AA3)</f>
@@ -11845,27 +11845,27 @@
       </c>
       <c r="AB2" s="13" cm="1">
         <f t="array" ref="AB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AD3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="13" cm="1">
         <f t="array" ref="AC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AE3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="13" cm="1">
         <f t="array" ref="AD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AF3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="13" cm="1">
         <f t="array" ref="AE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AG3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="13" cm="1">
         <f t="array" ref="AF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AH3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" s="13" cm="1">
         <f t="array" ref="AG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AI3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AH2" s="13" cm="1">
         <f t="array" ref="AH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AJ3)</f>
@@ -11881,27 +11881,27 @@
       </c>
       <c r="AK2" s="13" cm="1">
         <f t="array" ref="AK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AM3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AM3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="13" cm="1">
         <f t="array" ref="AL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AN3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM2" s="13" cm="1">
         <f t="array" ref="AM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AO3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="13" cm="1">
         <f t="array" ref="AN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AP3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="13" cm="1">
         <f t="array" ref="AO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AQ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="13" cm="1">
         <f t="array" ref="AP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AR3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="13" cm="1">
         <f t="array" ref="AQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AS3)</f>
@@ -11917,27 +11917,27 @@
       </c>
       <c r="AT2" s="13" cm="1">
         <f t="array" ref="AT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AV3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AV3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="13" cm="1">
         <f t="array" ref="AU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AW3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AV2" s="13" cm="1">
         <f t="array" ref="AV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AX3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW2" s="13" cm="1">
         <f t="array" ref="AW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AY3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="13" cm="1">
         <f t="array" ref="AX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AZ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="13" cm="1">
         <f t="array" ref="AY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BA3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="13" cm="1">
         <f t="array" ref="AZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BB3)</f>
@@ -11953,27 +11953,27 @@
       </c>
       <c r="BC2" s="13" cm="1">
         <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BE3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="13" cm="1">
         <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BF3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="13" cm="1">
         <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BG3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF2" s="13" cm="1">
         <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BH3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG2" s="13" cm="1">
         <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BI3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH2" s="13" cm="1">
         <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BJ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI2" s="13" cm="1">
         <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BK3)</f>
@@ -11989,27 +11989,27 @@
       </c>
       <c r="BL2" s="13" cm="1">
         <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BN3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="13" cm="1">
         <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BO3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BN2" s="13" cm="1">
         <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BP3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BO2" s="13" cm="1">
         <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BQ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BP2" s="13" cm="1">
         <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BR3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BQ2" s="13" cm="1">
         <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BS3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BR2" s="13" cm="1">
         <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BT3)</f>
@@ -12025,27 +12025,27 @@
       </c>
       <c r="BU2" s="13" cm="1">
         <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BW3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BV2" s="13" cm="1">
         <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BX3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BW2" s="13" cm="1">
         <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BY3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX2" s="13" cm="1">
         <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BZ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY2" s="13" cm="1">
         <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CA3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BZ2" s="13" cm="1">
         <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CB3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CA2" s="13" cm="1">
         <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CC3)</f>
@@ -12061,27 +12061,27 @@
       </c>
       <c r="CD2" s="13" cm="1">
         <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CE2" s="13" cm="1">
         <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CF2" s="13" cm="1">
         <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CG2" s="13" cm="1">
         <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CH2" s="13" cm="1">
         <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CI2" s="13" cm="1">
         <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CJ2" s="13" cm="1">
         <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CL3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL3)</f>
@@ -12097,27 +12097,27 @@
       </c>
       <c r="CM2" s="13" cm="1">
         <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CN2" s="13" cm="1">
         <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CO2" s="13" cm="1">
         <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CP2" s="13" cm="1">
         <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CQ2" s="13" cm="1">
         <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CR2" s="13" cm="1">
         <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CS2" s="13" cm="1">
         <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU3)</f>
@@ -12133,27 +12133,27 @@
       </c>
       <c r="CV2" s="13" cm="1">
         <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CW2" s="13" cm="1">
         <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CX2" s="13" cm="1">
         <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CY2" s="13" cm="1">
         <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CZ2" s="13" cm="1">
         <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DA2" s="13" cm="1">
         <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DB2" s="13" cm="1">
         <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD3)</f>
@@ -12239,38 +12239,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" cm="1">
         <f t="array" ref="A1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!A2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!J2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!S2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AB2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AK2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AT2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BC2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BL2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BU2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CD2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CM2*'شاخص‌های عمومی'!DG3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CV2*'شاخص‌های عمومی'!DG3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" cm="1">
         <f t="array" ref="B1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!B2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!K2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!T2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AC2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AL3*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AU2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BD2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BM2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BV2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CE2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CN2*'شاخص‌های عمومی'!DH3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CW2*'شاخص‌های عمومی'!DH3)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" cm="1">
         <f t="array" ref="C1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!C2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!L2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!U2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AD2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AM2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AV2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BE2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BN2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BW2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CF2*'شاخص‌های عمومی'!DI3,'دیتا عمومی'!CO2*'شاخص‌های عمومی'!DI3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CX2*'شاخص‌های عمومی'!DI3)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D1" cm="1">
         <f t="array" ref="D1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!D2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!M2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!V2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AE2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AN2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AW2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BF2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BO2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BX2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CG2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CP2*'شاخص‌های عمومی'!DJ3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CY2*'شاخص‌های عمومی'!DJ3)</f>
-        <v>12</v>
-      </c>
-      <c r="E1" t="e" cm="1">
-        <f t="array" ref="E1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!E1*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!N2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!W2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AF2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AO2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AX2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BG2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BP2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BY2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CH2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CQ2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CZ2*'شاخص‌های عمومی'!DK3)</f>
-        <v>#VALUE!</v>
+        <v>4</v>
+      </c>
+      <c r="E1" cm="1">
+        <f t="array" ref="E1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!E2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!N2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!W2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AF2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AO2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AX2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BG2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BP2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BY2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CH2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CQ2*'شاخص‌های عمومی'!DK3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!CZ2*'شاخص‌های عمومی'!DK3)</f>
+        <v>4</v>
       </c>
       <c r="F1" cm="1">
         <f t="array" ref="F1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!F2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!O2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!X2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AG2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AP2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AY2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BH2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BQ2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!BZ2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CI2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CR2*'شاخص‌های عمومی'!DL3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!DA2*'شاخص‌های عمومی'!DL3)</f>
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G1" cm="1">
+        <f t="array" ref="G1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!G2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!P2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!Y2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AH2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AQ2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!AZ2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BI2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BR2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!CA2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CJ2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CS2*'شاخص‌های عمومی'!DM3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!DB2*'شاخص‌های عمومی'!DM3)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" cm="1">
+        <f t="array" ref="H1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!H2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!Q2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!Z2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AI2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AR2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!BA2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BJ2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BS2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!CB2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CK2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CT2*'شاخص‌های عمومی'!DN3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!DC2*'شاخص‌های عمومی'!DN3)</f>
+        <v>0</v>
+      </c>
+      <c r="I1" cm="1">
+        <f t="array" ref="I1">_xlfn.SWITCH('صفحه اصلی'!D10,'شاخص‌های عمومی'!G1,'دیتا عمومی'!I2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!P1,'دیتا عمومی'!R2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!Y1,'دیتا عمومی'!AA2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!AH1,'دیتا عمومی'!AJ2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!AQ1,'دیتا عمومی'!AS2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!AZ1,'دیتا عمومی'!BB2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!BI1,'دیتا عمومی'!BK2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!BR1,'دیتا عمومی'!BT2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!CA1,'دیتا عمومی'!CC2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!CJ1,'دیتا عمومی'!CL2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!CS1,'دیتا عمومی'!CU2*'شاخص‌های عمومی'!DO3,'شاخص‌های عمومی'!DB1,'دیتا عمومی'!DD2*'شاخص‌های عمومی'!DO3)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A1BBA-DD43-B34F-998D-5DA070BE8F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FA512-2616-E341-B19B-F7BD79FF46B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
   <sheets>
     <sheet name="صفحه اصلی" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="شاخص‌های عمومی" sheetId="7" r:id="rId3"/>
     <sheet name="شاخص‌های مدیریتی و فرماندهی" sheetId="14" r:id="rId4"/>
     <sheet name="دیتا عمومی" sheetId="11" r:id="rId5"/>
-    <sheet name="نمودارها" sheetId="8" r:id="rId6"/>
-    <sheet name="ماه‌ها" sheetId="10" state="hidden" r:id="rId7"/>
+    <sheet name="دیتا مدیرتی و فرماندهی" sheetId="15" r:id="rId6"/>
+    <sheet name="نمودارها" sheetId="8" r:id="rId7"/>
+    <sheet name="ماه‌ها" sheetId="10" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'صفحه اصلی'!$A$1:$I$28</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="247">
   <si>
     <t>نام و نام خانوادگی</t>
   </si>
@@ -12467,7 +12468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9425791-3090-8148-9A7C-2897ADB7D5A1}">
   <dimension ref="A1:DO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" rightToLeft="1" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -13013,7 +13014,7 @@
         <f t="shared" si="9"/>
         <v>مدیریتی ۸</v>
       </c>
-      <c r="CW2" s="38" t="str">
+      <c r="CW2" s="21" t="str">
         <f t="shared" si="9"/>
         <v>مدیریتی ۹</v>
       </c>
@@ -22534,6 +22535,847 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10993374-1CDE-D345-894E-3CB87C699537}">
+  <dimension ref="A1:DD4"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="CB1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="CU1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CV1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:108" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" cm="1">
+        <f t="array" ref="A2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!C3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!C4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!C5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!C6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!C7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!C8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!C9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!C10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!C11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!C12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!C13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!C14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!C15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!C16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!C17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!C18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!C19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!C20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!C21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!C22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!C23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!C24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!C25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!C26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!C27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!C28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!C29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!C30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!C31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!C32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!C33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!C3)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" cm="1">
+        <f t="array" ref="B2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!D3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!D4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!D5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!D6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!D7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!D8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!D9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!D10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!D11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!D12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!D13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!D14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!D15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!D16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!D17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!D18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!D19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!D20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!D21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!D22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!D23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!D24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!D25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!D26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!D27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!D28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!D29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!D30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!D31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!D32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!D33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!D3)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" cm="1">
+        <f t="array" ref="C2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!E3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!E4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!E5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!E6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!E7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!E8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!E9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!E10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!E11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!E12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!E13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!E14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!E15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!E16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!E17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!E18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!E19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!E20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!E21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!E22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!E23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!E24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!E25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!E26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!E27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!E28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!E29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!E30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!E31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!E32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!E33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!E3)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" cm="1">
+        <f t="array" ref="D2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!F3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!F4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!F5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!F6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!F7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!F8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!F9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!F10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!F11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!F12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!F13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!F14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!F15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!F16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!F17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!F18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!F19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!F20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!F21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!F22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!F23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!F24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!F25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!F26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!F27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!F28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!F29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!F30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!F31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!F32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!F33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!F3)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="11" cm="1">
+        <f t="array" ref="E2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!G3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!G4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!G5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!G6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!G7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!G8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!G9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!G10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!G11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!G12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!G13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!G14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!G15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!G16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!G17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!G18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!G19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!G20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!G21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!G22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!G23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!G24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!G25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!G26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!G27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!G28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!G29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!G30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!G31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!G32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!G33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!G3)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" cm="1">
+        <f t="array" ref="F2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!H3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!H4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!H5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!H6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!H7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!H8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!H9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!H10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!H11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!H12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!H13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!H14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!H15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!H16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!H17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!H18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!H19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!H20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!H21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!H22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!H23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!H24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!H25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!H26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!H27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!H28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!H29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!H30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!H31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!H32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!H33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!H3)</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" cm="1">
+        <f t="array" ref="G2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!I3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!I4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!I5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!I6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!I7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!I8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!I9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!I10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!I11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!I12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!I13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!I14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!I15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!I16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!I17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!I18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!I19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!I20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!I21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!I22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!I23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!I24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!I25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!I26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!I27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!I28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!I29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!I30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!I31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!I32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!I33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!I3)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" cm="1">
+        <f t="array" ref="H2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!J3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!J4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!J5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!J6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!J7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!J8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!J9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!J10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!J11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!J12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!J13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!J14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!J15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!J16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!J17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!J18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!J19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!J20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!J21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!J22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!J23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!J24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!J25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!J26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!J27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!J28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!J29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!J30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!J31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!J32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!J33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!J3)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" cm="1">
+        <f t="array" ref="I2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!K3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!K4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!K5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!K6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!K7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!K8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!K9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!K10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!K11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!K12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!K13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!K14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!K15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!K16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!K17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!K18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!K19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!K20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!K21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!K22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!K23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!K24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!K25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!K26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!K27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!K28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!K29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!K30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!K31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!K32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!K33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!K3)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" cm="1">
+        <f t="array" ref="J2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!L3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!L4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!L5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!L6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!L7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!L8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!L9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!L10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!L11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!L12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!L13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!L14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!L15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!L16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!L17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!L18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!L19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!L20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!L21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!L22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!L23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!L24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!L25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!L26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!L27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!L28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!L29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!L30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!L31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!L32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!L33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!L3)</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="11" cm="1">
+        <f t="array" ref="K2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!M3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!M4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!M5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!M6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!M7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!M8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!M9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!M10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!M11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!M12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!M13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!M14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!M15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!M16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!M17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!M18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!M19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!M20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!M21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!M22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!M23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!M24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!M25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!M26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!M27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!M28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!M29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!M30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!M31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!M32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!M33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!M3)</f>
+        <v>1</v>
+      </c>
+      <c r="L2" s="11" cm="1">
+        <f t="array" ref="L2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!N3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!N4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!N5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!N6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!N7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!N8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!N9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!N10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!N11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!N12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!N13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!N14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!N15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!N16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!N17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!N18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!N19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!N20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!N21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!N22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!N23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!N24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!N25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!N26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!N27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!N28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!N29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!N30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!N31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!N32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!N33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!N3)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="11" cm="1">
+        <f t="array" ref="M2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!O3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!O4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!O5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!O6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!O7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!O8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!O9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!O10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!O11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!O12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!O13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!O14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!O15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!O16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!O17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!O18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!O19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!O20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!O21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!O22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!O23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!O24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!O25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!O26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!O27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!O28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!O29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!O30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!O31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!O32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!O33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!O3)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="11" cm="1">
+        <f t="array" ref="N2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!P3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!P4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!P5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!P6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!P7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!P8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!P9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!P10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!P11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!P12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!P13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!P14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!P15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!P16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!P17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!P18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!P19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!P20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!P21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!P22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!P23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!P24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!P25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!P26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!P27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!P28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!P29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!P30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!P31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!P32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!P33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!P3)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" cm="1">
+        <f t="array" ref="O2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!Q3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!Q4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!Q5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!Q6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!Q7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!Q8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!Q9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!Q10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!Q11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!Q12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!Q13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!Q14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!Q15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!Q16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!Q17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!Q18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!Q19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!Q20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!Q21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!Q22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!Q23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!Q24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!Q25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!Q26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!Q27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!Q28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!Q29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!Q30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!Q31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!Q32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!Q33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!Q3)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="11" cm="1">
+        <f t="array" ref="P2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!R3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!R4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!R5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!R6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!R7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!R8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!R9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!R10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!R11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!R12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!R13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!R14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!R15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!R16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!R17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!R18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!R19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!R20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!R21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!R22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!R23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!R24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!R25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!R26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!R27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!R28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!R29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!R30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!R31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!R32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!R33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!R3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11" cm="1">
+        <f t="array" ref="Q2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!R3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!R4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!R5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!R6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!R7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!R8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!R9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!R10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!R11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!R12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!R13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!R14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!R15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!R16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!R17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!R18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!R19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!R20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!R21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!R22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!R23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!R24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!R25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!R26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!R27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!R28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!R29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!R30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!R31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!R32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!R33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!R3)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="11" cm="1">
+        <f t="array" ref="R2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!T3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!T4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!T5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!T6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!T7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!T8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!T9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!T10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!T11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!T12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!T13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!T14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!T15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!T16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!T17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!T18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!T19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!T20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!T21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!T22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!T23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!T24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!T25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!T26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!T27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!T28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!T29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!T30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!T31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!T32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!T33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!T3)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="11" cm="1">
+        <f t="array" ref="S2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!U3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!U4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!U5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!U6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!U7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!U8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!U9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!U10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!U11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!U12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!U13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!U14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!U15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!U16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!U17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!U18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!U19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!U20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!U21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!U22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!U23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!U24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!U25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!U26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!U27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!U28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!U29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!U30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!U31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!U32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!U33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!U3)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="11" cm="1">
+        <f t="array" ref="T2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!V3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!V4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!V5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!V6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!V7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!V8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!V9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!V10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!V11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!V12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!V13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!V14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!V15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!V16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!V17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!V18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!V19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!V20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!V21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!V22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!V23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!V24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!V25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!V26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!V27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!V28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!V29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!V30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!V31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!V32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!V33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!V3)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="11" cm="1">
+        <f t="array" ref="U2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!V3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!V4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!V5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!V6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!V7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!V8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!V9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!V10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!V11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!V12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!V13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!V14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!V15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!V16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!V17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!V18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!V19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!V20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!V21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!V22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!V23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!V24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!V25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!V26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!V27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!V28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!V29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!V30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!V31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!V32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!V33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!V3)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="11" cm="1">
+        <f t="array" ref="V2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!X3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!X4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!X5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!X6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!X7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!X8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!X9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!X10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!X11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!X12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!X13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!X14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!X15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!X16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!X17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!X18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!X19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!X20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!X21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!X22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!X23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!X24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!X25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!X26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!X27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!X28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!X29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!X30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!X31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!X32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!X33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!X3)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="11" cm="1">
+        <f t="array" ref="W2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!Y3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!Y4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!Y5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!Y6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!Y7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!Y8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!Y9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!Y10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!Y11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!Y12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!Y13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!Y14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!Y15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!Y16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!Y17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!Y18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!Y19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!Y20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!Y21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!Y22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!Y23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!Y24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!Y25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!Y26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!Y27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!Y28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!Y29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!Y30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!Y31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!Y32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!Y33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!Y3)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="11" cm="1">
+        <f t="array" ref="X2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!Z3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!Z4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!Z5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!Z6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!Z7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!Z8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!Z9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!Z10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!Z11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!Z12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!Z13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!Z14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!Z15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!Z16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!Z17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!Z18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!Z19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!Z20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!Z21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!Z22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!Z23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!Z24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!Z25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!Z26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!Z27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!Z28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!Z29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!Z30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!Z31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!Z32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!Z33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!Z3)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11" cm="1">
+        <f t="array" ref="Y2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="11" cm="1">
+        <f t="array" ref="Z2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AB3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AB4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AB5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AB6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AB7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AB8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AB9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AB10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AB11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AB12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AB13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AB14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AB15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AB16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AB17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AB18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AB19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AB20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AB21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AB22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AB23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AB24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AB25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AB26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AB27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AB28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AB29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AB30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AB31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AB32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AB33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AB3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="11" cm="1">
+        <f t="array" ref="AA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AC3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AC4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AC5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AC6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AC7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AC8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AC9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AC10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AC11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AC12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AC13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AC14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AC15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AC16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AC17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AC18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AC19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AC20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AC21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AC22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AC23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AC24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AC25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AC26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AC27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AC28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AC29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AC30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AC31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AC32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AC33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AC3)</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="11" cm="1">
+        <f t="array" ref="AB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AD3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AD4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AD5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AD6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AD7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AD8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AD9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AD10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AD11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AD12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AD13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AD14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AD15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AD16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AD17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AD18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AD19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AD20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AD21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AD22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AD23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AD24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AD25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AD26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AD27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AD28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AD29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AD30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AD31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AD32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AD33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AD3)</f>
+        <v>1</v>
+      </c>
+      <c r="AC2" s="11" cm="1">
+        <f t="array" ref="AC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AE3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AE4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AE5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AE6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AE7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AE8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AE9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AE10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AE11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AE12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AE13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AE14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AE15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AE16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AE17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AE18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AE19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AE20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AE21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AE22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AE23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AE24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AE25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AE26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AE27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AE28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AE29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AE30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AE31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AE32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AE33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AE3)</f>
+        <v>1</v>
+      </c>
+      <c r="AD2" s="11" cm="1">
+        <f t="array" ref="AD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AF3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AF4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AF5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AF6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AF7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AF8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AF9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AF10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AF11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AF12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AF13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AF14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AF15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AF16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AF17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AF18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AF19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AF20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AF21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AF22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AF23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AF24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AF25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AF26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AF27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AF28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AF29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AF30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AF31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AF32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AF33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AF3)</f>
+        <v>1</v>
+      </c>
+      <c r="AE2" s="11" cm="1">
+        <f t="array" ref="AE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AG3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AG4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AG5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AG6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AG7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AG8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AG9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AG10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AG11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AG12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AG13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AG14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AG15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AG16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AG17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AG18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AG19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AG20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AG21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AG22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AG23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AG24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AG25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AG26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AG27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AG28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AG29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AG30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AG31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AG32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AG33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AG3)</f>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="11" cm="1">
+        <f t="array" ref="AF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AH3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AH4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AH5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AH6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AH7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AH8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AH9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AH10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AH11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AH12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AH13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AH14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AH15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AH16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AH17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AH18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AH19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AH20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AH21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AH22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AH23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AH24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AH25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AH26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AH27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AH28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AH29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AH30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AH31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AH32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AH33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AH3)</f>
+        <v>1</v>
+      </c>
+      <c r="AG2" s="11" cm="1">
+        <f t="array" ref="AG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AI3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AI4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AI5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AI6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AI7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AI8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AI9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AI10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AI11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AI12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AI13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AI14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AI15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AI16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AI17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AI18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AI19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AI20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AI21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AI22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AI23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AI24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AI25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AI26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AI27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AI28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AI29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AI30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AI31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AI32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AI33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AI3)</f>
+        <v>1</v>
+      </c>
+      <c r="AH2" s="11" cm="1">
+        <f t="array" ref="AH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AJ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AJ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AJ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AJ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AJ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AJ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AJ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AJ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AJ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AJ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AJ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AJ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AJ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AJ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AJ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AJ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AJ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AJ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AJ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AJ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AJ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AJ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AJ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AJ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AJ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AJ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AJ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AJ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AJ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AJ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AJ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AJ3)</f>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="11" cm="1">
+        <f t="array" ref="AI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AK3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AK4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AK5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AK6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AK7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AK8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AK9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AK10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AK11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AK12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AK13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AK14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AK15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AK16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AK17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AK18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AK19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AK20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AK21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AK22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AK23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AK24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AK25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AK26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AK27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AK28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AK29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AK30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AK31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AK32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AK33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AK3)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="11" cm="1">
+        <f t="array" ref="AJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AL3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AL4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AL5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AL6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AL7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AL8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AL9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AL10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AL11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AL12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AL13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AL14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AL15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AL16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AL17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AL18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AL19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AL20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AL21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AL22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AL23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AL24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AL25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AL26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AL27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AL28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AL29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AL30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AL31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AL32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AL33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AL3)</f>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="11" cm="1">
+        <f t="array" ref="AK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AM3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AM4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AM5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AM6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AM7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AM8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AM9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AM10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AM11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AM12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AM13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AM14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AM15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AM16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AM17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AM18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AM19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AM20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AM21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AM22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AM23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AM24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AM25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AM26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AM27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AM28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AM29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AM30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AM31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AM32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AM33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AM3)</f>
+        <v>1</v>
+      </c>
+      <c r="AL2" s="11" cm="1">
+        <f t="array" ref="AL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AN3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AN4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AN5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AN6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AN7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AN8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AN9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AN10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AN11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AN12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AN13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AN14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AN15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AN16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AN17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AN18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AN19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AN20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AN21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AN22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AN23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AN24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AN25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AN26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AN27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AN28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AN29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AN30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AN31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AN32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AN33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AN3)</f>
+        <v>1</v>
+      </c>
+      <c r="AM2" s="11" cm="1">
+        <f t="array" ref="AM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AO3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AO4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AO5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AO6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AO7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AO8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AO9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AO10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AO11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AO12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AO13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AO14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AO15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AO16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AO17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AO18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AO19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AO20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AO21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AO22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AO23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AO24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AO25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AO26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AO27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AO28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AO29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AO30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AO31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AO32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AO33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AO3)</f>
+        <v>1</v>
+      </c>
+      <c r="AN2" s="11" cm="1">
+        <f t="array" ref="AN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AP3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AP4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AP5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AP6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AP7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AP8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AP9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AP10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AP11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AP12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AP13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AP14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AP15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AP16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AP17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AP18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AP19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AP20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AP21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AP22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AP23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AP24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AP25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AP26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AP27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AP28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AP29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AP30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AP31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AP32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AP33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AP3)</f>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="11" cm="1">
+        <f t="array" ref="AO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AQ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AQ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AQ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AQ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AQ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AQ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AQ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AQ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AQ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AQ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AQ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AQ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AQ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AQ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AQ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AQ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AQ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AQ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AQ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AQ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AQ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AQ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AQ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AQ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AQ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AQ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AQ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AQ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AQ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AQ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AQ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AQ3)</f>
+        <v>1</v>
+      </c>
+      <c r="AP2" s="11" cm="1">
+        <f t="array" ref="AP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AR3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AR4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AR5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AR6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AR7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AR8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AR9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AR10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AR11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AR12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AR13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AR14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AR15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AR16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AR17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AR18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AR19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AR20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AR21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AR22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AR23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AR24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AR25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AR26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AR27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AR28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AR29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AR30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AR31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AR32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AR33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AR3)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="11" cm="1">
+        <f t="array" ref="AQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AS3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AS4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AS5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AS6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AS7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AS8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AS9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AS10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AS11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AS12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AS13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AS14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AS15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AS16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AS17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AS18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AS19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AS20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AS21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AS22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AS23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AS24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AS25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AS26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AS27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AS28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AS29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AS30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AS31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AS32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AS33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AS3)</f>
+        <v>0</v>
+      </c>
+      <c r="AR2" s="11" cm="1">
+        <f t="array" ref="AR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AS3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AS4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AS5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AS6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AS7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AS8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AS9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AS10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AS11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AS12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AS13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AS14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AS15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AS16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AS17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AS18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AS19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AS20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AS21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AS22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AS23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AS24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AS25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AS26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AS27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AS28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AS29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AS30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AS31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AS32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AS33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AS3)</f>
+        <v>0</v>
+      </c>
+      <c r="AS2" s="11" cm="1">
+        <f t="array" ref="AS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!AU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AU3)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="11" cm="1">
+        <f t="array" ref="AT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AV3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AV4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AV5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AV6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AV7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AV8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AV9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AV10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AV11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AV12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AV13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AV14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AV15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AV16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AV17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AV18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AV19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AV20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AV21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AV22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AV23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AV24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AV25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AV26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AV27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AV28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AV29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AV30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AV31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AV32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AV33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AV3)</f>
+        <v>1</v>
+      </c>
+      <c r="AU2" s="11" cm="1">
+        <f t="array" ref="AU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AW3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AW4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AW5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AW6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AW7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AW8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AW9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AW10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AW11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AW12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AW13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AW14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AW15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AW16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AW17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AW18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AW19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AW20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AW21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AW22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AW23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AW24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AW25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AW26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AW27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AW28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AW29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AW30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AW31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AW32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AW33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AW3)</f>
+        <v>1</v>
+      </c>
+      <c r="AV2" s="11" cm="1">
+        <f t="array" ref="AV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AX3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AX4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AX5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AX6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AX7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AX8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AX9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AX10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AX11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AX12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AX13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AX14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AX15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AX16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AX17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AX18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AX19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AX20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AX21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AX22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AX23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AX24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AX25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AX26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AX27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AX28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AX29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AX30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AX31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AX32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AX33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AX3)</f>
+        <v>1</v>
+      </c>
+      <c r="AW2" s="11" cm="1">
+        <f t="array" ref="AW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AY3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AY4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AY5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AY6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AY7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AY8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AY9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AY10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AY11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AY12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AY13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AY14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AY15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AY16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AY17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AY18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AY19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AY20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AY21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AY22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AY23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AY24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AY25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AY26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AY27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AY28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AY29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AY30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AY31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AY32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AY33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AY3)</f>
+        <v>1</v>
+      </c>
+      <c r="AX2" s="11" cm="1">
+        <f t="array" ref="AX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!AZ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!AZ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!AZ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!AZ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!AZ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!AZ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!AZ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!AZ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!AZ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!AZ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!AZ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!AZ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!AZ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!AZ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!AZ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!AZ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!AZ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!AZ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!AZ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!AZ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!AZ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!AZ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!AZ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!AZ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!AZ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!AZ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!AZ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!AZ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!AZ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!AZ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!AZ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!AZ3)</f>
+        <v>1</v>
+      </c>
+      <c r="AY2" s="11" cm="1">
+        <f t="array" ref="AY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BA3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BA4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BA5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BA6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BA7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BA8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BA9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BA10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BA11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BA12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BA13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BA14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BA15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BA16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BA17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BA18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BA19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BA20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BA21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BA22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BA23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BA24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BA25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BA26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BA27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BA28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BA29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BA30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BA31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BA32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BA33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BA3)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="11" cm="1">
+        <f t="array" ref="AZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BB3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BB4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BB5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BB6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BB7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BB8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BB9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BB10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BB11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BB12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BB13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BB14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BB15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BB16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BB17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BB18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BB19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BB20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BB21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BB22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BB23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BB24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BB25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BB26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BB27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BB28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BB29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BB30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BB31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BB32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BB33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BB3)</f>
+        <v>0</v>
+      </c>
+      <c r="BA2" s="11" cm="1">
+        <f t="array" ref="BA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BC3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BC4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BC5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BC6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BC7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BC8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BC9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BC10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BC11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BC12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BC13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BC14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BC15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BC16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BC17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BC18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BC19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BC20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BC21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BC22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BC23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BC24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BC25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BC26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BC27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BC28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BC29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BC30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BC31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BC32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BC33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BC3)</f>
+        <v>0</v>
+      </c>
+      <c r="BB2" s="11" cm="1">
+        <f t="array" ref="BB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BD3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BD4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BD5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BD6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BD7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BD8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BD9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BD10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BD11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BD12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BD13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BD14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BD15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BD16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BD17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BD18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BD19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BD20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BD21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BD22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BD23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BD24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BD25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BD26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BD27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BD28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BD29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BD30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BD31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BD32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BD33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BD3)</f>
+        <v>0</v>
+      </c>
+      <c r="BC2" s="11" cm="1">
+        <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BE3)</f>
+        <v>1</v>
+      </c>
+      <c r="BD2" s="11" cm="1">
+        <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BF3)</f>
+        <v>1</v>
+      </c>
+      <c r="BE2" s="11" cm="1">
+        <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BG3)</f>
+        <v>1</v>
+      </c>
+      <c r="BF2" s="11" cm="1">
+        <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BH3)</f>
+        <v>1</v>
+      </c>
+      <c r="BG2" s="11" cm="1">
+        <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BI3)</f>
+        <v>1</v>
+      </c>
+      <c r="BH2" s="11" cm="1">
+        <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BJ3)</f>
+        <v>1</v>
+      </c>
+      <c r="BI2" s="11" cm="1">
+        <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BK3)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="11" cm="1">
+        <f t="array" ref="BJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BL3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BL3)</f>
+        <v>0</v>
+      </c>
+      <c r="BK2" s="11" cm="1">
+        <f t="array" ref="BK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BM3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BM3)</f>
+        <v>0</v>
+      </c>
+      <c r="BL2" s="11" cm="1">
+        <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BN3)</f>
+        <v>1</v>
+      </c>
+      <c r="BM2" s="11" cm="1">
+        <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BO3)</f>
+        <v>1</v>
+      </c>
+      <c r="BN2" s="11" cm="1">
+        <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BP3)</f>
+        <v>1</v>
+      </c>
+      <c r="BO2" s="11" cm="1">
+        <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BQ3)</f>
+        <v>1</v>
+      </c>
+      <c r="BP2" s="11" cm="1">
+        <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BR3)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ2" s="11" cm="1">
+        <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BS3)</f>
+        <v>1</v>
+      </c>
+      <c r="BR2" s="11" cm="1">
+        <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BT3)</f>
+        <v>0</v>
+      </c>
+      <c r="BS2" s="11" cm="1">
+        <f t="array" ref="BS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BU3)</f>
+        <v>0</v>
+      </c>
+      <c r="BT2" s="11" cm="1">
+        <f t="array" ref="BT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BV3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BV3)</f>
+        <v>0</v>
+      </c>
+      <c r="BU2" s="11" cm="1">
+        <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BW3)</f>
+        <v>1</v>
+      </c>
+      <c r="BV2" s="11" cm="1">
+        <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BX3)</f>
+        <v>1</v>
+      </c>
+      <c r="BW2" s="11" cm="1">
+        <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BY3)</f>
+        <v>1</v>
+      </c>
+      <c r="BX2" s="11" cm="1">
+        <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BZ3)</f>
+        <v>1</v>
+      </c>
+      <c r="BY2" s="11" cm="1">
+        <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CA3)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ2" s="11" cm="1">
+        <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CB3)</f>
+        <v>1</v>
+      </c>
+      <c r="CA2" s="11" cm="1">
+        <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CC3)</f>
+        <v>0</v>
+      </c>
+      <c r="CB2" s="11" cm="1">
+        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CD3)</f>
+        <v>0</v>
+      </c>
+      <c r="CC2" s="11" cm="1">
+        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CE3)</f>
+        <v>0</v>
+      </c>
+      <c r="CD2" s="11" cm="1">
+        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF3)</f>
+        <v>1</v>
+      </c>
+      <c r="CE2" s="11" cm="1">
+        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG3)</f>
+        <v>1</v>
+      </c>
+      <c r="CF2" s="11" cm="1">
+        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH3)</f>
+        <v>1</v>
+      </c>
+      <c r="CG2" s="11" cm="1">
+        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI3)</f>
+        <v>1</v>
+      </c>
+      <c r="CH2" s="11" cm="1">
+        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ3)</f>
+        <v>1</v>
+      </c>
+      <c r="CI2" s="11" cm="1">
+        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK3)</f>
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="11" cm="1">
+        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CL3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL3)</f>
+        <v>0</v>
+      </c>
+      <c r="CK2" s="11" cm="1">
+        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CM3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CM3)</f>
+        <v>0</v>
+      </c>
+      <c r="CL2" s="11" cm="1">
+        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CN3)</f>
+        <v>0</v>
+      </c>
+      <c r="CM2" s="11" cm="1">
+        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO3)</f>
+        <v>1</v>
+      </c>
+      <c r="CN2" s="11" cm="1">
+        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP3)</f>
+        <v>1</v>
+      </c>
+      <c r="CO2" s="11" cm="1">
+        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ3)</f>
+        <v>1</v>
+      </c>
+      <c r="CP2" s="11" cm="1">
+        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR3)</f>
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="11" cm="1">
+        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS3)</f>
+        <v>1</v>
+      </c>
+      <c r="CR2" s="11" cm="1">
+        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT3)</f>
+        <v>1</v>
+      </c>
+      <c r="CS2" s="11" cm="1">
+        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU3)</f>
+        <v>0</v>
+      </c>
+      <c r="CT2" s="11" cm="1">
+        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CV3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CV3)</f>
+        <v>0</v>
+      </c>
+      <c r="CU2" s="11" cm="1">
+        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CW3)</f>
+        <v>0</v>
+      </c>
+      <c r="CV2" s="11" cm="1">
+        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX3)</f>
+        <v>1</v>
+      </c>
+      <c r="CW2" s="11" cm="1">
+        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY3)</f>
+        <v>1</v>
+      </c>
+      <c r="CX2" s="11" cm="1">
+        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ3)</f>
+        <v>1</v>
+      </c>
+      <c r="CY2" s="11" cm="1">
+        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA3)</f>
+        <v>1</v>
+      </c>
+      <c r="CZ2" s="11" cm="1">
+        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB3)</f>
+        <v>1</v>
+      </c>
+      <c r="DA2" s="11" cm="1">
+        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC3)</f>
+        <v>1</v>
+      </c>
+      <c r="DB2" s="11" cm="1">
+        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD3)</f>
+        <v>0</v>
+      </c>
+      <c r="DC2" s="11" cm="1">
+        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DE3)</f>
+        <v>0</v>
+      </c>
+      <c r="DD2" s="11" cm="1">
+        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DF3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
+      <c r="BU3" s="14"/>
+      <c r="BV3" s="14"/>
+      <c r="BW3" s="14"/>
+      <c r="BX3" s="14"/>
+      <c r="BY3" s="14"/>
+      <c r="BZ3" s="14"/>
+      <c r="CA3" s="14"/>
+      <c r="CB3" s="14"/>
+      <c r="CC3" s="14"/>
+      <c r="CD3" s="14"/>
+      <c r="CE3" s="14"/>
+      <c r="CF3" s="14"/>
+      <c r="CG3" s="14"/>
+      <c r="CH3" s="14"/>
+      <c r="CI3" s="14"/>
+      <c r="CJ3" s="14"/>
+      <c r="CK3" s="14"/>
+      <c r="CL3" s="14"/>
+      <c r="CM3" s="14"/>
+      <c r="CN3" s="14"/>
+      <c r="CO3" s="14"/>
+      <c r="CP3" s="14"/>
+      <c r="CQ3" s="14"/>
+      <c r="CR3" s="14"/>
+      <c r="CS3" s="14"/>
+      <c r="CT3" s="14"/>
+      <c r="CU3" s="14"/>
+      <c r="CV3" s="14"/>
+      <c r="CW3" s="14"/>
+      <c r="CX3" s="14"/>
+      <c r="CY3" s="14"/>
+      <c r="CZ3" s="14"/>
+      <c r="DA3" s="14"/>
+      <c r="DB3" s="14"/>
+      <c r="DC3" s="14"/>
+      <c r="DD3" s="14"/>
+    </row>
+    <row r="4" spans="1:108" x14ac:dyDescent="0.2">
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
+      <c r="DA4" s="14"/>
+      <c r="DB4" s="14"/>
+      <c r="DC4" s="14"/>
+      <c r="DD4" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF60A41E-DB03-5F46-886C-E18FFE6E9199}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -22586,7 +23428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA123D2-0336-694E-A8F7-870F75EFF230}">
   <dimension ref="A1:A12"/>
   <sheetViews>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76FA512-2616-E341-B19B-F7BD79FF46B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A2899-1B16-2247-AD83-D7A610FE05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
@@ -22538,8 +22538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10993374-1CDE-D345-894E-3CB87C699537}">
   <dimension ref="A1:DD4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DD3" sqref="DD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23091,219 +23091,219 @@
         <v>0</v>
       </c>
       <c r="BC2" s="11" cm="1">
-        <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BE3)</f>
+        <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BE3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BE4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BE5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BE6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BE7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BE8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BE9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BE10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BE11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BE12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BE13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BE14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BE15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BE16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BE17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BE18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BE19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BE20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BE21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BE22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BE23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BE24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BE25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BE26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BE27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BE28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BE29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BE30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BE31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BE32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BE33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BE3)</f>
         <v>1</v>
       </c>
       <c r="BD2" s="11" cm="1">
-        <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BF3)</f>
+        <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BF3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BF4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BF5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BF6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BF7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BF8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BF9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BF10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BF11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BF12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BF13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BF14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BF15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BF16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BF17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BF18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BF19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BF20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BF21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BF22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BF23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BF24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BF25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BF26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BF27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BF28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BF29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BF30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BF31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BF32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BF33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BF3)</f>
         <v>1</v>
       </c>
       <c r="BE2" s="11" cm="1">
-        <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BG3)</f>
+        <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BG3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BG4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BG5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BG6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BG7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BG8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BG9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BG10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BG11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BG12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BG13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BG14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BG15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BG16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BG17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BG18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BG19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BG20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BG21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BG22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BG23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BG24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BG25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BG26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BG27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BG28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BG29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BG30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BG31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BG32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BG33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BG3)</f>
         <v>1</v>
       </c>
       <c r="BF2" s="11" cm="1">
-        <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BH3)</f>
+        <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BH3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BH4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BH5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BH6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BH7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BH8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BH9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BH10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BH11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BH12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BH13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BH14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BH15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BH16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BH17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BH18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BH19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BH20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BH21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BH22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BH23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BH24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BH25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BH26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BH27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BH28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BH29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BH30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BH31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BH32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BH33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BH3)</f>
         <v>1</v>
       </c>
       <c r="BG2" s="11" cm="1">
-        <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BI3)</f>
+        <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BI3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BI4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BI5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BI6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BI7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BI8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BI9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BI10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BI11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BI12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BI13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BI14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BI15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BI16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BI17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BI18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BI19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BI20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BI21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BI22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BI23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BI24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BI25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BI26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BI27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BI28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BI29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BI30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BI31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BI32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BI33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BI3)</f>
         <v>1</v>
       </c>
       <c r="BH2" s="11" cm="1">
-        <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BJ3)</f>
+        <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BJ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BJ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BJ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BJ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BJ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BJ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BJ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BJ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BJ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BJ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BJ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BJ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BJ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BJ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BJ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BJ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BJ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BJ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BJ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BJ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BJ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BJ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BJ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BJ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BJ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BJ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BJ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BJ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BJ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BJ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BJ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BJ3)</f>
         <v>1</v>
       </c>
       <c r="BI2" s="11" cm="1">
-        <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BK3)</f>
+        <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BK3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BK4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BK5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BK6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BK7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BK8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BK9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BK10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BK11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BK12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BK13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BK14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BK15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BK16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BK17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BK18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BK19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BK20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BK21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BK22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BK23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BK24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BK25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BK26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BK27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BK28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BK29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BK30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BK31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BK32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BK33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BK3)</f>
         <v>0</v>
       </c>
       <c r="BJ2" s="11" cm="1">
-        <f t="array" ref="BJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BL3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BL3)</f>
+        <f t="array" ref="BJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BL3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BL4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BL5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BL6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BL7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BL8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BL9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BL10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BL11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BL12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BL13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BL14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BL15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BL16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BL17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BL18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BL19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BL20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BL21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BL22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BL23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BL24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BL25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BL26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BL27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BL28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BL29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BL30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BL31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BL32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BL33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BL3)</f>
         <v>0</v>
       </c>
       <c r="BK2" s="11" cm="1">
-        <f t="array" ref="BK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BM3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BM3)</f>
+        <f t="array" ref="BK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BM3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BM4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BM5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BM6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BM7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BM8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BM9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BM10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BM11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BM12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BM13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BM14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BM15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BM16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BM17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BM18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BM19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BM20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BM21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BM22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BM23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BM24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BM25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BM26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BM27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BM28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BM29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BM30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BM31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BM32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BM33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BM3)</f>
         <v>0</v>
       </c>
       <c r="BL2" s="11" cm="1">
-        <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BN3)</f>
+        <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BN3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BN4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BN5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BN6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BN7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BN8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BN9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BN10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BN11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BN12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BN13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BN14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BN15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BN16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BN17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BN18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BN19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BN20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BN21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BN22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BN23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BN24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BN25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BN26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BN27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BN28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BN29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BN30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BN31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BN32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BN33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BN3)</f>
         <v>1</v>
       </c>
       <c r="BM2" s="11" cm="1">
-        <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BO3)</f>
+        <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BO3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BO4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BO5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BO6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BO7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BO8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BO9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BO10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BO11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BO12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BO13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BO14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BO15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BO16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BO17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BO18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BO19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BO20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BO21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BO22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BO23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BO24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BO25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BO26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BO27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BO28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BO29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BO30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BO31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BO32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BO33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BO3)</f>
         <v>1</v>
       </c>
       <c r="BN2" s="11" cm="1">
-        <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BP3)</f>
+        <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BP3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BP4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BP5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BP6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BP7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BP8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BP9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BP10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BP11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BP12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BP13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BP14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BP15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BP16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BP17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BP18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BP19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BP20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BP21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BP22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BP23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BP24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BP25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BP26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BP27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BP28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BP29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BP30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BP31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BP32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BP33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BP3)</f>
         <v>1</v>
       </c>
       <c r="BO2" s="11" cm="1">
-        <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BQ3)</f>
+        <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BQ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BQ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BQ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BQ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BQ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BQ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BQ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BQ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BQ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BQ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BQ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BQ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BQ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BQ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BQ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BQ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BQ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BQ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BQ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BQ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BQ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BQ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BQ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BQ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BQ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BQ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BQ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BQ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BQ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BQ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BQ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BQ3)</f>
         <v>1</v>
       </c>
       <c r="BP2" s="11" cm="1">
-        <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BR3)</f>
+        <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BR3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BR4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BR5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BR6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BR7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BR8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BR9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BR10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BR11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BR12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BR13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BR14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BR15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BR16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BR17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BR18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BR19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BR20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BR21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BR22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BR23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BR24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BR25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BR26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BR27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BR28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BR29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BR30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BR31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BR32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BR33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BR3)</f>
         <v>1</v>
       </c>
       <c r="BQ2" s="11" cm="1">
-        <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BS3)</f>
+        <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BS3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BS4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BS5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BS6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BS7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BS8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BS9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BS10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BS11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BS12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BS13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BS14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BS15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BS16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BS17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BS18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BS19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BS20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BS21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BS22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BS23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BS24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BS25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BS26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BS27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BS28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BS29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BS30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BS31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BS32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BS33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BS3)</f>
         <v>1</v>
       </c>
       <c r="BR2" s="11" cm="1">
-        <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BT3)</f>
+        <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BT3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BT4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BT5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BT6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BT7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BT8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BT9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BT10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BT11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BT12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BT13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BT14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BT15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BT16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BT17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BT18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BT19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BT20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BT21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BT22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BT23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BT24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BT25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BT26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BT27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BT28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BT29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BT30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BT31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BT32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BT33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BT3)</f>
         <v>0</v>
       </c>
       <c r="BS2" s="11" cm="1">
-        <f t="array" ref="BS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BU3)</f>
+        <f t="array" ref="BS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BU3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BU4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BU5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BU6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BU7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BU8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BU9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BU10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BU11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BU12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BU13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BU14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BU15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BU16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BU17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BU18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BU19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BU20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BU21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BU22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BU23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BU24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BU25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BU26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BU27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BU28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BU29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BU30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BU31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BU32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BU33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BU3)</f>
         <v>0</v>
       </c>
       <c r="BT2" s="11" cm="1">
-        <f t="array" ref="BT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BV3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BV3)</f>
+        <f t="array" ref="BT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BV3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BV4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BV5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BV6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BV7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BV8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BV9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BV10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BV11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BV12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BV13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BV14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BV15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BV16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BV17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BV18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BV19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BV20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BV21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BV22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BV23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BV24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BV25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BV26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BV27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BV28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BV29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BV30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BV31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BV32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BV33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BV3)</f>
         <v>0</v>
       </c>
       <c r="BU2" s="11" cm="1">
-        <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BW3)</f>
+        <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BW3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BW4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BW5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BW6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BW7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BW8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BW9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BW10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BW11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BW12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BW13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BW14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BW15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BW16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BW17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BW18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BW19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BW20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BW21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BW22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BW23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BW24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BW25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BW26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BW27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BW28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BW29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BW30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BW31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BW32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BW33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BW3)</f>
         <v>1</v>
       </c>
       <c r="BV2" s="11" cm="1">
-        <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BX3)</f>
+        <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BX3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BX4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BX5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BX6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BX7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BX8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BX9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BX10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BX11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BX12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BX13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BX14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BX15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BX16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BX17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BX18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BX19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BX20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BX21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BX22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BX23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BX24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BX25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BX26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BX27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BX28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BX29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BX30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BX31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BX32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BX33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BX3)</f>
         <v>1</v>
       </c>
       <c r="BW2" s="11" cm="1">
-        <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BY3)</f>
+        <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BY3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BY4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BY5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BY6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BY7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BY8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BY9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BY10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BY11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BY12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BY13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BY14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BY15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BY16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BY17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BY18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BY19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BY20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BY21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BY22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BY23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BY24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BY25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BY26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BY27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BY28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BY29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BY30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BY31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BY32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BY33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BY3)</f>
         <v>1</v>
       </c>
       <c r="BX2" s="11" cm="1">
-        <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!BZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BZ3)</f>
+        <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!BZ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!BZ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!BZ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!BZ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!BZ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!BZ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!BZ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!BZ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!BZ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!BZ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!BZ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!BZ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!BZ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!BZ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!BZ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!BZ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!BZ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!BZ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!BZ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!BZ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!BZ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!BZ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!BZ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!BZ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!BZ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!BZ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!BZ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!BZ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!BZ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!BZ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!BZ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!BZ3)</f>
         <v>1</v>
       </c>
       <c r="BY2" s="11" cm="1">
-        <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CA3)</f>
+        <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CA3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CA4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CA5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CA6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CA7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CA8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CA9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CA10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CA11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CA12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CA13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CA14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CA15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CA16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CA17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CA18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CA19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CA20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CA21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CA22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CA23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CA24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CA25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CA26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CA27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CA28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CA29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CA30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CA31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CA32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CA33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CA3)</f>
         <v>1</v>
       </c>
       <c r="BZ2" s="11" cm="1">
-        <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CB3)</f>
+        <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CB3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CB4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CB5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CB6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CB7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CB8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CB9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CB10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CB11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CB12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CB13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CB14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CB15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CB16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CB17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CB18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CB19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CB20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CB21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CB22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CB23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CB24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CB25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CB26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CB27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CB28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CB29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CB30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CB31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CB32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CB33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CB3)</f>
         <v>1</v>
       </c>
       <c r="CA2" s="11" cm="1">
-        <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CC3)</f>
+        <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CC3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CC4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CC5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CC6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CC7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CC8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CC9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CC10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CC11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CC12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CC13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CC14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CC15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CC16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CC17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CC18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CC19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CC20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CC21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CC22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CC23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CC24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CC25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CC26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CC27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CC28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CC29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CC30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CC31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CC32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CC33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CC3)</f>
         <v>0</v>
       </c>
       <c r="CB2" s="11" cm="1">
-        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CD3)</f>
+        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CD3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CD4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CD5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CD6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CD7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CD8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CD9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CD10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CD11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CD12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CD13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CD14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CD15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CD16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CD17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CD18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CD19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CD20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CD21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CD22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CD23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CD24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CD25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CD26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CD27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CD28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CD29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CD30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CD31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CD32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CD33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CD3)</f>
         <v>0</v>
       </c>
       <c r="CC2" s="11" cm="1">
-        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CE3)</f>
+        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CE3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CE4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CE5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CE6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CE7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CE8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CE9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CE10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CE11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CE12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CE13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CE14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CE15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CE16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CE17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CE18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CE19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CE20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CE21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CE22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CE23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CE24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CE25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CE26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CE27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CE28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CE29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CE30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CE31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CE32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CE33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CE3)</f>
         <v>0</v>
       </c>
       <c r="CD2" s="11" cm="1">
-        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF3)</f>
+        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CF3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CF4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CF5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CF6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CF7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CF8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CF9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CF10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CF11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CF12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CF13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CF14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CF15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CF16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CF17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CF18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CF19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CF20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CF21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CF22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CF23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CF24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CF25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CF26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CF27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CF28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CF29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CF30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CF31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CF32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CF33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CF3)</f>
         <v>1</v>
       </c>
       <c r="CE2" s="11" cm="1">
-        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CG3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG3)</f>
+        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CG3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CG4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CG5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CG6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CG7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CG8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CG9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CG10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CG11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CG12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CG13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CG14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CG15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CG16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CG17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CG18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CG19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CG20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CG21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CG22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CG23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CG24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CG25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CG26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CG27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CG28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CG29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CG30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CG31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CG32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CG33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CG3)</f>
         <v>1</v>
       </c>
       <c r="CF2" s="11" cm="1">
-        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CH3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH3)</f>
+        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CH3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CH4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CH5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CH6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CH7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CH8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CH9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CH10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CH11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CH12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CH13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CH14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CH15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CH16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CH17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CH18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CH19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CH20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CH21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CH22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CH23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CH24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CH25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CH26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CH27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CH28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CH29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CH30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CH31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CH32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CH33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CH3)</f>
         <v>1</v>
       </c>
       <c r="CG2" s="11" cm="1">
-        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CI3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI3)</f>
+        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CI3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CI4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CI5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CI6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CI7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CI8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CI9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CI10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CI11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CI12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CI13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CI14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CI15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CI16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CI17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CI18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CI19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CI20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CI21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CI22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CI23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CI24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CI25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CI26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CI27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CI28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CI29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CI30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CI31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CI32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CI33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CI3)</f>
         <v>1</v>
       </c>
       <c r="CH2" s="11" cm="1">
-        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CJ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ3)</f>
+        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CJ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CJ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CJ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CJ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CJ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CJ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CJ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CJ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CJ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CJ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CJ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CJ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CJ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CJ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CJ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CJ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CJ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CJ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CJ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CJ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CJ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CJ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CJ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CJ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CJ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CJ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CJ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CJ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CJ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CJ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CJ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CJ3)</f>
         <v>1</v>
       </c>
       <c r="CI2" s="11" cm="1">
-        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CK3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK3)</f>
+        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CK3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CK4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CK5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CK6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CK7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CK8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CK9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CK10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CK11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CK12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CK13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CK14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CK15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CK16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CK17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CK18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CK19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CK20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CK21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CK22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CK23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CK24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CK25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CK26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CK27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CK28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CK29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CK30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CK31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CK32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CK33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CK3)</f>
         <v>1</v>
       </c>
       <c r="CJ2" s="11" cm="1">
-        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CL3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL3)</f>
+        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CL3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CL4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CL5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CL6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CL7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CL8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CL9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CL10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CL11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CL12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CL13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CL14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CL15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CL16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CL17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CL18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CL19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CL20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CL21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CL22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CL23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CL24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CL25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CL26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CL27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CL28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CL29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CL30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CL31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CL32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CL33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CL3)</f>
         <v>0</v>
       </c>
       <c r="CK2" s="11" cm="1">
-        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CM3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CM3)</f>
+        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CM3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CM4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CM5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CM6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CM7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CM8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CM9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CM10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CM11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CM12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CM13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CM14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CM15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CM16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CM17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CM18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CM19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CM20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CM21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CM22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CM23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CM24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CM25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CM26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CM27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CM28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CM29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CM30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CM31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CM32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CM33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CM3)</f>
         <v>0</v>
       </c>
       <c r="CL2" s="11" cm="1">
-        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CN3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CN3)</f>
+        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CN3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CN4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CN5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CN6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CN7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CN8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CN9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CN10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CN11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CN12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CN13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CN14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CN15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CN16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CN17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CN18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CN19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CN20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CN21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CN22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CN23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CN24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CN25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CN26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CN27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CN28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CN29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CN30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CN31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CN32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CN33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CN3)</f>
         <v>0</v>
       </c>
       <c r="CM2" s="11" cm="1">
-        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CO3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO3)</f>
+        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CO3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CO4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CO5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CO6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CO7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CO8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CO9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CO10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CO11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CO12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CO13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CO14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CO15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CO16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CO17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CO18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CO19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CO20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CO21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CO22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CO23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CO24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CO25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CO26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CO27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CO28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CO29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CO30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CO31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CO32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CO33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CO3)</f>
         <v>1</v>
       </c>
       <c r="CN2" s="11" cm="1">
-        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CP3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP3)</f>
+        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CP3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CP4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CP5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CP6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CP7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CP8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CP9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CP10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CP11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CP12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CP13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CP14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CP15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CP16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CP17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CP18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CP19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CP20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CP21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CP22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CP23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CP24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CP25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CP26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CP27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CP28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CP29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CP30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CP31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CP32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CP33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CP3)</f>
         <v>1</v>
       </c>
       <c r="CO2" s="11" cm="1">
-        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CQ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ3)</f>
+        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CQ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CQ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CQ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CQ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CQ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CQ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CQ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CQ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CQ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CQ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CQ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CQ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CQ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CQ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CQ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CQ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CQ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CQ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CQ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CQ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CQ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CQ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CQ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CQ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CQ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CQ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CQ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CQ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CQ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CQ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CQ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CQ3)</f>
         <v>1</v>
       </c>
       <c r="CP2" s="11" cm="1">
-        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CR3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR3)</f>
+        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CR3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CR4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CR5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CR6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CR7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CR8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CR9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CR10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CR11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CR12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CR13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CR14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CR15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CR16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CR17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CR18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CR19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CR20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CR21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CR22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CR23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CR24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CR25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CR26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CR27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CR28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CR29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CR30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CR31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CR32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CR33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CR3)</f>
         <v>1</v>
       </c>
       <c r="CQ2" s="11" cm="1">
-        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CS3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS3)</f>
+        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CS3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CS4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CS5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CS6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CS7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CS8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CS9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CS10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CS11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CS12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CS13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CS14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CS15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CS16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CS17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CS18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CS19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CS20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CS21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CS22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CS23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CS24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CS25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CS26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CS27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CS28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CS29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CS30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CS31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CS32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CS33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CS3)</f>
         <v>1</v>
       </c>
       <c r="CR2" s="11" cm="1">
-        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CT3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT3)</f>
+        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CT3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CT4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CT5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CT6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CT7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CT8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CT9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CT10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CT11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CT12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CT13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CT14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CT15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CT16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CT17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CT18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CT19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CT20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CT21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CT22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CT23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CT24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CT25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CT26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CT27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CT28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CT29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CT30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CT31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CT32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CT33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CT3)</f>
         <v>1</v>
       </c>
       <c r="CS2" s="11" cm="1">
-        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CU3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU3)</f>
+        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CU3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CU4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CU5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CU6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CU7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CU8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CU9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CU10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CU11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CU12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CU13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CU14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CU15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CU16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CU17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CU18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CU19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CU20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CU21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CU22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CU23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CU24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CU25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CU26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CU27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CU28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CU29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CU30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CU31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CU32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CU33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CU3)</f>
         <v>0</v>
       </c>
       <c r="CT2" s="11" cm="1">
-        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CV3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CV3)</f>
+        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CV3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CV4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CV5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CV6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CV7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CV8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CV9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CV10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CV11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CV12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CV13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CV14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CV15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CV16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CV17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CV18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CV19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CV20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CV21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CV22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CV23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CV24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CV25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CV26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CV27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CV28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CV29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CV30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CV31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CV32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CV33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CV3)</f>
         <v>0</v>
       </c>
       <c r="CU2" s="11" cm="1">
-        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CW3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CW3)</f>
+        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CW3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CW4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CW5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CW6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CW7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CW8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CW9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CW10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CW11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CW12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CW13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CW14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CW15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CW16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CW17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CW18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CW19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CW20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CW21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CW22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CW23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CW24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CW25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CW26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CW27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CW28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CW29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CW30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CW31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CW32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CW33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CW3)</f>
         <v>0</v>
       </c>
       <c r="CV2" s="11" cm="1">
-        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CX3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX3)</f>
+        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CX3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CX4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CX5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CX6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CX7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CX8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CX9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CX10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CX11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CX12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CX13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CX14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CX15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CX16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CX17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CX18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CX19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CX20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CX21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CX22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CX23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CX24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CX25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CX26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CX27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CX28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CX29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CX30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CX31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CX32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CX33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CX3)</f>
         <v>1</v>
       </c>
       <c r="CW2" s="11" cm="1">
-        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CY3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY3)</f>
+        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CY3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CY4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CY5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CY6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CY7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CY8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CY9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CY10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CY11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CY12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CY13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CY14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CY15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CY16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CY17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CY18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CY19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CY20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CY21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CY22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CY23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CY24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CY25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CY26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CY27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CY28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CY29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CY30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CY31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CY32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CY33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CY3)</f>
         <v>1</v>
       </c>
       <c r="CX2" s="11" cm="1">
-        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!CZ3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ3)</f>
+        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!CZ3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!CZ4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!CZ5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!CZ6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!CZ7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!CZ8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!CZ9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!CZ10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!CZ11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!CZ12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!CZ13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!CZ14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!CZ15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!CZ16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!CZ17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!CZ18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!CZ19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!CZ20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!CZ21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!CZ22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!CZ23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!CZ24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!CZ25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!CZ26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!CZ27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!CZ28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!CZ29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!CZ30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!CZ31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!CZ32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!CZ33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!CZ3)</f>
         <v>1</v>
       </c>
       <c r="CY2" s="11" cm="1">
-        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DA3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA3)</f>
+        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DA3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DA4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DA5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DA6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DA7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DA8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DA9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DA10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DA11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DA12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DA13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DA14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DA15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DA16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DA17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DA18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DA19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DA20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DA21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DA22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DA23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DA24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DA25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DA26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DA27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DA28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DA29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DA30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DA31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DA32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DA33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DA3)</f>
         <v>1</v>
       </c>
       <c r="CZ2" s="11" cm="1">
-        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DB3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB3)</f>
+        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DB3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DB4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DB5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DB6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DB7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DB8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DB9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DB10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DB11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DB12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DB13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DB14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DB15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DB16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DB17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DB18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DB19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DB20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DB21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DB22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DB23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DB24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DB25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DB26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DB27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DB28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DB29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DB30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DB31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DB32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DB33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DB3)</f>
         <v>1</v>
       </c>
       <c r="DA2" s="11" cm="1">
-        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DC3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC3)</f>
+        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DC3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DC4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DC5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DC6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DC7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DC8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DC9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DC10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DC11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DC12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DC13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DC14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DC15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DC16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DC17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DC18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DC19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DC20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DC21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DC22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DC23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DC24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DC25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DC26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DC27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DC28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DC29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DC30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DC31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DC32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DC33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DC3)</f>
         <v>1</v>
       </c>
       <c r="DB2" s="11" cm="1">
-        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DD3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD3)</f>
+        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DD3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DD4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DD5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DD6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DD7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DD8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DD9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DD10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DD11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DD12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DD13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DD14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DD15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DD16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DD17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DD18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DD19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DD20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DD21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DD22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DD23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DD24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DD25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DD26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DD27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DD28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DD29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DD30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DD31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DD32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DD33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DD3)</f>
         <v>0</v>
       </c>
       <c r="DC2" s="11" cm="1">
-        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DE3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DE3)</f>
+        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DE3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DE4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DE5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DE6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DE7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DE8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DE9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DE10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DE11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DE12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DE13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DE14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DE15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DE16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DE17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DE18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DE19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DE20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DE21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DE22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DE23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DE24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DE25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DE26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DE27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DE28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DE29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DE30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DE31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DE32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DE33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DE3)</f>
         <v>0</v>
       </c>
       <c r="DD2" s="11" cm="1">
-        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A3,'شاخص‌های عمومی'!DF3,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DF3)</f>
+        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های مدیریتی و فرماندهی'!A3,'شاخص‌های مدیریتی و فرماندهی'!DF3,'شاخص‌های مدیریتی و فرماندهی'!A4,'شاخص‌های مدیریتی و فرماندهی'!DF4,'شاخص‌های مدیریتی و فرماندهی'!A5,'شاخص‌های مدیریتی و فرماندهی'!DF5,'شاخص‌های مدیریتی و فرماندهی'!A6,'شاخص‌های مدیریتی و فرماندهی'!DF6,'شاخص‌های مدیریتی و فرماندهی'!A7,'شاخص‌های مدیریتی و فرماندهی'!DF7,'شاخص‌های مدیریتی و فرماندهی'!A8,'شاخص‌های مدیریتی و فرماندهی'!DF8,'شاخص‌های مدیریتی و فرماندهی'!A9,'شاخص‌های مدیریتی و فرماندهی'!DF9,'شاخص‌های مدیریتی و فرماندهی'!A10,'شاخص‌های مدیریتی و فرماندهی'!DF10,'شاخص‌های مدیریتی و فرماندهی'!A11,'شاخص‌های مدیریتی و فرماندهی'!DF11,'شاخص‌های مدیریتی و فرماندهی'!A12,'شاخص‌های مدیریتی و فرماندهی'!DF12,'شاخص‌های مدیریتی و فرماندهی'!A13,'شاخص‌های مدیریتی و فرماندهی'!DF13,'شاخص‌های مدیریتی و فرماندهی'!A14,'شاخص‌های مدیریتی و فرماندهی'!DF14,'شاخص‌های مدیریتی و فرماندهی'!A15,'شاخص‌های مدیریتی و فرماندهی'!DF15,'شاخص‌های مدیریتی و فرماندهی'!A16,'شاخص‌های مدیریتی و فرماندهی'!DF16,'شاخص‌های مدیریتی و فرماندهی'!A17,'شاخص‌های مدیریتی و فرماندهی'!DF17,'شاخص‌های مدیریتی و فرماندهی'!A18,'شاخص‌های مدیریتی و فرماندهی'!DF18,'شاخص‌های مدیریتی و فرماندهی'!A19,'شاخص‌های مدیریتی و فرماندهی'!DF19,'شاخص‌های مدیریتی و فرماندهی'!A20,'شاخص‌های مدیریتی و فرماندهی'!DF20,'شاخص‌های مدیریتی و فرماندهی'!A21,'شاخص‌های مدیریتی و فرماندهی'!DF21,'شاخص‌های مدیریتی و فرماندهی'!A22,'شاخص‌های مدیریتی و فرماندهی'!DF22,'شاخص‌های مدیریتی و فرماندهی'!A23,'شاخص‌های مدیریتی و فرماندهی'!DF23,'شاخص‌های مدیریتی و فرماندهی'!A24,'شاخص‌های مدیریتی و فرماندهی'!DF24,'شاخص‌های مدیریتی و فرماندهی'!A25,'شاخص‌های مدیریتی و فرماندهی'!DF25,'شاخص‌های مدیریتی و فرماندهی'!A26,'شاخص‌های مدیریتی و فرماندهی'!DF26,'شاخص‌های مدیریتی و فرماندهی'!A27,'شاخص‌های مدیریتی و فرماندهی'!DF27,'شاخص‌های مدیریتی و فرماندهی'!A28,'شاخص‌های مدیریتی و فرماندهی'!DF28,'شاخص‌های مدیریتی و فرماندهی'!A29,'شاخص‌های مدیریتی و فرماندهی'!DF29,'شاخص‌های مدیریتی و فرماندهی'!A30,'شاخص‌های مدیریتی و فرماندهی'!DF30,'شاخص‌های مدیریتی و فرماندهی'!A31,'شاخص‌های مدیریتی و فرماندهی'!DF31,'شاخص‌های مدیریتی و فرماندهی'!A32,'شاخص‌های مدیریتی و فرماندهی'!DF32,'شاخص‌های مدیریتی و فرماندهی'!A33,'شاخص‌های مدیریتی و فرماندهی'!DF33,'شاخص‌های مدیریتی و فرماندهی'!A34,'شاخص‌های مدیریتی و فرماندهی'!DF3)</f>
         <v>0</v>
       </c>
     </row>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6882288-AFE7-9C42-88ED-EDF836A9626A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C358E-17C1-7B44-A478-8534FAB80BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
@@ -6199,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC84A7-3AB1-7547-B9A1-F1864183AEE2}">
   <dimension ref="A1:FO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="FD1" workbookViewId="0">
-      <selection activeCell="FD4" sqref="FD4"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="EU1" workbookViewId="0">
+      <selection activeCell="FH3" sqref="FH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="28" x14ac:dyDescent="0.4"/>
@@ -22899,8 +22899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9519950E-893F-834B-8AAC-F631CBA5E000}">
   <dimension ref="A1:EZ2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="CA2" sqref="CA2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="CT1" workbookViewId="0">
+      <selection activeCell="DN2" sqref="DN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23691,6 +23691,158 @@
       <c r="CA2" s="10" cm="1">
         <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CD35)*'شاخص‌های عمومی'!FC4</f>
         <v>2</v>
+      </c>
+      <c r="CB2" s="10" cm="1">
+        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CE35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="CC2" s="10" cm="1">
+        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CF35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="CD2" s="10" cm="1">
+        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CG35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="CE2" s="10" cm="1">
+        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CH35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="CF2" s="10" cm="1">
+        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CI35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="CG2" s="10" cm="1">
+        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CJ35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="CH2" s="10" cm="1">
+        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="CI2" s="10" cm="1">
+        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CL35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="CJ2" s="10" cm="1">
+        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CM35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="CK2" s="10" cm="1">
+        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CN35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="CL2" s="10" cm="1">
+        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="CM2" s="10" cm="1">
+        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CP35)*'شاخص‌های عمومی'!FO4</f>
+        <v>8</v>
+      </c>
+      <c r="CN2" s="10" cm="1">
+        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CQ35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="CO2" s="10" cm="1">
+        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CR35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="CP2" s="10" cm="1">
+        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CS35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="CQ2" s="10" cm="1">
+        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CT35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="CR2" s="10" cm="1">
+        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CU35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="CS2" s="10" cm="1">
+        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CV35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="CT2" s="10" cm="1">
+        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CW35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="CU2" s="10" cm="1">
+        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="CV2" s="10" cm="1">
+        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CY35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="CW2" s="10" cm="1">
+        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CZ35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="CX2" s="10" cm="1">
+        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DA35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="CY2" s="10" cm="1">
+        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DB35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="CZ2" s="10" cm="1">
+        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DC35)*'شاخص‌های عمومی'!FO4</f>
+        <v>8</v>
+      </c>
+      <c r="DA2" s="10" cm="1">
+        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DD35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="DB2" s="10" cm="1">
+        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DE35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="DC2" s="10" cm="1">
+        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DF35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="DD2" s="10" cm="1">
+        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DG35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="DE2" s="10" cm="1">
+        <f t="array" ref="DE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DH35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="DF2" s="10" cm="1">
+        <f t="array" ref="DF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DI35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="DG2" s="10" cm="1">
+        <f t="array" ref="DG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DJ35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="DH2" s="10" cm="1">
+        <f t="array" ref="DH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="DI2" s="10" cm="1">
+        <f t="array" ref="DI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DL35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="DJ2" s="10" cm="1">
+        <f t="array" ref="DJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DM35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="DK2" s="10" cm="1">
+        <f t="array" ref="DK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DN35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="DL2" s="10" cm="1">
+        <f t="array" ref="DL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="DM2" s="10" cm="1">
+        <f t="array" ref="DM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DP35)*'شاخص‌های عمومی'!FO4</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Library/CloudStorage/OneDrive-email.kntu.ac.ir/MangerDashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C358E-17C1-7B44-A478-8534FAB80BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6D76E3-A651-054D-88B2-9019508A8622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{490754A7-E054-EF47-883C-C68C37A7F559}"/>
   </bookViews>
@@ -6199,8 +6199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EAC84A7-3AB1-7547-B9A1-F1864183AEE2}">
   <dimension ref="A1:FO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="EU1" workbookViewId="0">
-      <selection activeCell="FH3" sqref="FH3"/>
+    <sheetView showGridLines="0" rightToLeft="1" topLeftCell="BO1" workbookViewId="0">
+      <selection activeCell="CC1" sqref="CC1:CC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="28" x14ac:dyDescent="0.4"/>
@@ -6886,35 +6886,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="CD3" s="58" t="str">
-        <f t="shared" ref="CD3" si="38">BQ3</f>
+        <f>BQ3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="CE3" s="58" t="str">
-        <f t="shared" ref="CE3" si="39">BR3</f>
+        <f>BR3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="CF3" s="58" t="str">
-        <f t="shared" ref="CF3" si="40">BS3</f>
+        <f>BS3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="CG3" s="54" t="str">
-        <f t="shared" ref="CG3" si="41">BT3</f>
+        <f>BT3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="CH3" s="58" t="str">
-        <f t="shared" ref="CH3" si="42">BU3</f>
+        <f>BU3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="CI3" s="58" t="str">
-        <f t="shared" ref="CI3" si="43">BV3</f>
+        <f>BV3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="CJ3" s="58" t="str">
-        <f t="shared" ref="CJ3" si="44">BW3</f>
+        <f>BW3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="CK3" s="59" t="str">
-        <f t="shared" ref="CK3" si="45">BX3</f>
+        <f>BX3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="CL3" s="48" t="str">
@@ -6922,15 +6922,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="CM3" s="48" t="str">
-        <f t="shared" ref="CM3:CO3" si="46">BZ3</f>
+        <f>BZ3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="CN3" s="48" t="str">
-        <f t="shared" si="46"/>
+        <f>CA3</f>
         <v>عمومی ۱۲</v>
       </c>
       <c r="CO3" s="49" t="str">
-        <f t="shared" si="46"/>
+        <f>CB3</f>
         <v>عمومی ۱۳</v>
       </c>
       <c r="CP3" s="58" t="str">
@@ -6938,35 +6938,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="CQ3" s="58" t="str">
-        <f t="shared" ref="CQ3" si="47">CD3</f>
+        <f t="shared" ref="CQ3" si="38">CD3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="CR3" s="58" t="str">
-        <f t="shared" ref="CR3" si="48">CE3</f>
+        <f t="shared" ref="CR3" si="39">CE3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="CS3" s="54" t="str">
-        <f t="shared" ref="CS3" si="49">CF3</f>
+        <f t="shared" ref="CS3" si="40">CF3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="CT3" s="58" t="str">
-        <f t="shared" ref="CT3" si="50">CG3</f>
+        <f t="shared" ref="CT3" si="41">CG3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="CU3" s="58" t="str">
-        <f t="shared" ref="CU3" si="51">CH3</f>
+        <f t="shared" ref="CU3" si="42">CH3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="CV3" s="58" t="str">
-        <f t="shared" ref="CV3" si="52">CI3</f>
+        <f t="shared" ref="CV3" si="43">CI3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="CW3" s="58" t="str">
-        <f t="shared" ref="CW3" si="53">CJ3</f>
+        <f t="shared" ref="CW3" si="44">CJ3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="CX3" s="59" t="str">
-        <f t="shared" ref="CX3" si="54">CK3</f>
+        <f t="shared" ref="CX3" si="45">CK3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="CY3" s="48" t="str">
@@ -6974,15 +6974,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="CZ3" s="48" t="str">
-        <f t="shared" ref="CZ3:DB3" si="55">CM3</f>
+        <f t="shared" ref="CZ3:DB3" si="46">CM3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="DA3" s="48" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="46"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="DB3" s="49" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="46"/>
         <v>عمومی ۱۳</v>
       </c>
       <c r="DC3" s="58" t="str">
@@ -6990,35 +6990,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="DD3" s="58" t="str">
-        <f t="shared" ref="DD3" si="56">CQ3</f>
+        <f t="shared" ref="DD3" si="47">CQ3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="DE3" s="58" t="str">
-        <f t="shared" ref="DE3" si="57">CR3</f>
+        <f t="shared" ref="DE3" si="48">CR3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="DF3" s="58" t="str">
-        <f t="shared" ref="DF3" si="58">CS3</f>
+        <f t="shared" ref="DF3" si="49">CS3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="DG3" s="58" t="str">
-        <f t="shared" ref="DG3" si="59">CT3</f>
+        <f t="shared" ref="DG3" si="50">CT3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="DH3" s="58" t="str">
-        <f t="shared" ref="DH3" si="60">CU3</f>
+        <f t="shared" ref="DH3" si="51">CU3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="DI3" s="58" t="str">
-        <f t="shared" ref="DI3" si="61">CV3</f>
+        <f t="shared" ref="DI3" si="52">CV3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="DJ3" s="54" t="str">
-        <f t="shared" ref="DJ3" si="62">CW3</f>
+        <f t="shared" ref="DJ3" si="53">CW3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="DK3" s="60" t="str">
-        <f t="shared" ref="DK3" si="63">CX3</f>
+        <f t="shared" ref="DK3" si="54">CX3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="DL3" s="48" t="str">
@@ -7026,15 +7026,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="DM3" s="48" t="str">
-        <f t="shared" ref="DM3:DO3" si="64">CZ3</f>
+        <f t="shared" ref="DM3:DO3" si="55">CZ3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="DN3" s="48" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="55"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="DO3" s="49" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="55"/>
         <v>عمومی ۱۳</v>
       </c>
       <c r="DP3" s="58" t="str">
@@ -7042,35 +7042,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="DQ3" s="58" t="str">
-        <f t="shared" ref="DQ3" si="65">DD3</f>
+        <f t="shared" ref="DQ3" si="56">DD3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="DR3" s="58" t="str">
-        <f t="shared" ref="DR3" si="66">DE3</f>
+        <f t="shared" ref="DR3" si="57">DE3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="DS3" s="58" t="str">
-        <f t="shared" ref="DS3" si="67">DF3</f>
+        <f t="shared" ref="DS3" si="58">DF3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="DT3" s="58" t="str">
-        <f t="shared" ref="DT3" si="68">DG3</f>
+        <f t="shared" ref="DT3" si="59">DG3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="DU3" s="58" t="str">
-        <f t="shared" ref="DU3" si="69">DH3</f>
+        <f t="shared" ref="DU3" si="60">DH3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="DV3" s="58" t="str">
-        <f t="shared" ref="DV3" si="70">DI3</f>
+        <f t="shared" ref="DV3" si="61">DI3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="DW3" s="58" t="str">
-        <f t="shared" ref="DW3" si="71">DJ3</f>
+        <f t="shared" ref="DW3" si="62">DJ3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="DX3" s="61" t="str">
-        <f t="shared" ref="DX3" si="72">DK3</f>
+        <f t="shared" ref="DX3" si="63">DK3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="DY3" s="48" t="str">
@@ -7078,15 +7078,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="DZ3" s="48" t="str">
-        <f t="shared" ref="DZ3:EB3" si="73">DM3</f>
+        <f t="shared" ref="DZ3:EB3" si="64">DM3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="EA3" s="48" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="64"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="EB3" s="49" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="64"/>
         <v>عمومی ۱۳</v>
       </c>
       <c r="EC3" s="58" t="str">
@@ -7094,35 +7094,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="ED3" s="58" t="str">
-        <f t="shared" ref="ED3" si="74">DQ3</f>
+        <f t="shared" ref="ED3" si="65">DQ3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="EE3" s="58" t="str">
-        <f t="shared" ref="EE3" si="75">DR3</f>
+        <f t="shared" ref="EE3" si="66">DR3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="EF3" s="54" t="str">
-        <f t="shared" ref="EF3" si="76">DS3</f>
+        <f t="shared" ref="EF3" si="67">DS3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="EG3" s="58" t="str">
-        <f t="shared" ref="EG3" si="77">DT3</f>
+        <f t="shared" ref="EG3" si="68">DT3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="EH3" s="58" t="str">
-        <f t="shared" ref="EH3" si="78">DU3</f>
+        <f t="shared" ref="EH3" si="69">DU3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="EI3" s="58" t="str">
-        <f t="shared" ref="EI3" si="79">DV3</f>
+        <f t="shared" ref="EI3" si="70">DV3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="EJ3" s="58" t="str">
-        <f t="shared" ref="EJ3" si="80">DW3</f>
+        <f t="shared" ref="EJ3" si="71">DW3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="EK3" s="59" t="str">
-        <f t="shared" ref="EK3" si="81">DX3</f>
+        <f t="shared" ref="EK3" si="72">DX3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="EL3" s="48" t="str">
@@ -7130,15 +7130,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="EM3" s="48" t="str">
-        <f t="shared" ref="EM3:EO3" si="82">DZ3</f>
+        <f t="shared" ref="EM3:EO3" si="73">DZ3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="EN3" s="48" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="EO3" s="49" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="73"/>
         <v>عمومی ۱۳</v>
       </c>
       <c r="EP3" s="58" t="str">
@@ -7146,35 +7146,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="EQ3" s="58" t="str">
-        <f t="shared" ref="EQ3" si="83">ED3</f>
+        <f t="shared" ref="EQ3" si="74">ED3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="ER3" s="58" t="str">
-        <f t="shared" ref="ER3" si="84">EE3</f>
+        <f t="shared" ref="ER3" si="75">EE3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="ES3" s="58" t="str">
-        <f t="shared" ref="ES3" si="85">EF3</f>
+        <f t="shared" ref="ES3" si="76">EF3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="ET3" s="58" t="str">
-        <f t="shared" ref="ET3" si="86">EG3</f>
+        <f t="shared" ref="ET3" si="77">EG3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="EU3" s="58" t="str">
-        <f t="shared" ref="EU3" si="87">EH3</f>
+        <f t="shared" ref="EU3" si="78">EH3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="EV3" s="58" t="str">
-        <f t="shared" ref="EV3" si="88">EI3</f>
+        <f t="shared" ref="EV3" si="79">EI3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="EW3" s="58" t="str">
-        <f t="shared" ref="EW3" si="89">EJ3</f>
+        <f t="shared" ref="EW3" si="80">EJ3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="EX3" s="59" t="str">
-        <f t="shared" ref="EX3" si="90">EK3</f>
+        <f t="shared" ref="EX3" si="81">EK3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="EY3" s="48" t="str">
@@ -7182,15 +7182,15 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="EZ3" s="48" t="str">
-        <f t="shared" ref="EZ3:FB3" si="91">EM3</f>
+        <f t="shared" ref="EZ3:FB3" si="82">EM3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="FA3" s="48" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="82"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="FB3" s="49" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="82"/>
         <v>عمومی ۱۳</v>
       </c>
       <c r="FC3" s="58" t="str">
@@ -7198,35 +7198,35 @@
         <v>اجتناب از غیبت</v>
       </c>
       <c r="FD3" s="58" t="str">
-        <f t="shared" ref="FD3" si="92">EQ3</f>
+        <f t="shared" ref="FD3" si="83">EQ3</f>
         <v>از خود گذشتگی</v>
       </c>
       <c r="FE3" s="58" t="str">
-        <f t="shared" ref="FE3" si="93">ER3</f>
+        <f t="shared" ref="FE3" si="84">ER3</f>
         <v>امر به معروف و نهی از منکر</v>
       </c>
       <c r="FF3" s="58" t="str">
-        <f t="shared" ref="FF3" si="94">ES3</f>
+        <f t="shared" ref="FF3" si="85">ES3</f>
         <v>حسن رفتار</v>
       </c>
       <c r="FG3" s="58" t="str">
-        <f t="shared" ref="FG3" si="95">ET3</f>
+        <f t="shared" ref="FG3" si="86">ET3</f>
         <v>خستگی ناپذیری(استقامت)</v>
       </c>
       <c r="FH3" s="58" t="str">
-        <f t="shared" ref="FH3" si="96">EU3</f>
+        <f t="shared" ref="FH3" si="87">EU3</f>
         <v>دقت در به کارگیری و حفظ بیت المال</v>
       </c>
       <c r="FI3" s="58" t="str">
-        <f t="shared" ref="FI3" si="97">EV3</f>
+        <f t="shared" ref="FI3" si="88">EV3</f>
         <v>ساده زیستی و پرهیز از اشرافی‌گری</v>
       </c>
       <c r="FJ3" s="59" t="str">
-        <f t="shared" ref="FJ3" si="98">EW3</f>
+        <f t="shared" ref="FJ3" si="89">EW3</f>
         <v>صداقت در گفتار و کردار</v>
       </c>
       <c r="FK3" s="48" t="str">
-        <f t="shared" ref="FK3" si="99">EX3</f>
+        <f t="shared" ref="FK3" si="90">EX3</f>
         <v>عمل به تکلیف بدون ملاحظه کاری و نتیجه گرایی مطلق</v>
       </c>
       <c r="FL3" s="48" t="str">
@@ -7234,11 +7234,11 @@
         <v>نشاط و امید و مثبت نگری واقع بینانه</v>
       </c>
       <c r="FM3" s="48" t="str">
-        <f t="shared" ref="FM3:FN3" si="100">EZ3</f>
+        <f t="shared" ref="FM3:FN3" si="91">EZ3</f>
         <v>نظم و انظباط</v>
       </c>
       <c r="FN3" s="48" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="91"/>
         <v>عمومی ۱۲</v>
       </c>
       <c r="FO3" s="49" t="str">
@@ -22897,952 +22897,1108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9519950E-893F-834B-8AAC-F631CBA5E000}">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="C1:FB2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="CT1" workbookViewId="0">
-      <selection activeCell="DN2" sqref="DN2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="BV1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CE1" sqref="CE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="3:158" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>248</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>250</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>251</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>252</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>253</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>254</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>255</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>257</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>258</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>259</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>119</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>121</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>122</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>123</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>124</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>125</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>126</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>260</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>261</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>262</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>263</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>264</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>265</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>266</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>267</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>268</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>136</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>139</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>142</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>143</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>269</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>270</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>271</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>272</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>144</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>145</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>146</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>147</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>148</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>149</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>150</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>151</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>152</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>273</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>274</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>275</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>276</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>153</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>154</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>155</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>156</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>157</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>158</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>159</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>160</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BX1" t="s">
         <v>161</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BY1" t="s">
         <v>277</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>278</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CA1" t="s">
         <v>279</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CB1" t="s">
         <v>280</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CC1" t="s">
         <v>162</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CD1" t="s">
         <v>163</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CE1" t="s">
         <v>164</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CF1" t="s">
         <v>165</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CG1" t="s">
         <v>166</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>167</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>168</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>169</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>170</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>281</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>282</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>283</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>284</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>171</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>172</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>173</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>174</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>175</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>176</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>177</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>178</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>179</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>285</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>286</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>287</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DB1" t="s">
         <v>288</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DC1" t="s">
         <v>180</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DD1" t="s">
         <v>181</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
         <v>182</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DF1" t="s">
         <v>183</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DG1" t="s">
         <v>184</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DH1" t="s">
         <v>185</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DI1" t="s">
         <v>186</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>187</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
         <v>188</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DL1" t="s">
         <v>289</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>290</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
         <v>291</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DO1" t="s">
         <v>292</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>189</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DQ1" t="s">
         <v>190</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DR1" t="s">
         <v>191</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DS1" t="s">
         <v>192</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DT1" t="s">
         <v>193</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DU1" t="s">
         <v>194</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DV1" t="s">
         <v>195</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DW1" t="s">
         <v>196</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DX1" t="s">
         <v>197</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DY1" t="s">
         <v>293</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DZ1" t="s">
         <v>294</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EA1" t="s">
         <v>295</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EB1" t="s">
         <v>296</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EC1" t="s">
         <v>198</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="ED1" t="s">
         <v>199</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EE1" t="s">
         <v>200</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EF1" t="s">
         <v>201</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EG1" t="s">
         <v>202</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EH1" t="s">
         <v>203</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EI1" t="s">
         <v>204</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EJ1" t="s">
         <v>205</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EK1" t="s">
         <v>206</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EL1" t="s">
         <v>297</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EM1" t="s">
         <v>298</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EN1" t="s">
         <v>299</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EO1" t="s">
         <v>300</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EP1" t="s">
         <v>207</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EQ1" t="s">
         <v>208</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ER1" t="s">
         <v>209</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ES1" t="s">
         <v>210</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ET1" t="s">
         <v>211</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="EU1" t="s">
         <v>212</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="EV1" t="s">
         <v>213</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EW1" t="s">
         <v>214</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EX1" t="s">
         <v>215</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EY1" t="s">
         <v>301</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EZ1" t="s">
         <v>302</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FA1" t="s">
         <v>303</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FB1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:156" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" cm="1">
-        <f t="array" ref="A2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!C4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!C5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!C6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!C7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!C8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!C9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!C10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!C11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!C12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!C13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!C14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!C15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!C16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!C17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!C18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!C19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!C20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!C21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!C22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!C23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!C24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!C25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!C26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!C27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!C28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!C29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!C30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!C31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!C32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!C33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!C34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!C35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" cm="1">
-        <f t="array" ref="B2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!D4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!D5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!D6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!D7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!D8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!D9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!D10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!D11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!D12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!D13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!D14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!D15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!D16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!D17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!D18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!D19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!D20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!D21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!D22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!D23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!D24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!D25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!D26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!D27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!D28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!D29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!D30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!D31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!D32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!D33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!D34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!D35)*'شاخص‌های عمومی'!FD4</f>
-        <v>4</v>
-      </c>
+    <row r="2" spans="3:158" ht="24" x14ac:dyDescent="0.2">
       <c r="C2" cm="1">
-        <f t="array" ref="C2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!E4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!E5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!E6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!E7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!E8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!E9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!E10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!E11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!E12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!E13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!E14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!E15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!E16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!E17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!E18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!E19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!E20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!E21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!E22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!E23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!E24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!E25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!E26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!E27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!E28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!E29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!E30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!E31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!E32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!E33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!E34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!E35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="C2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!C4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!C5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!C6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!C7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!C8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!C9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!C10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!C11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!C12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!C13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!C14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!C15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!C16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!C17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!C18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!C19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!C20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!C21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!C22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!C23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!C24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!C25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!C26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!C27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!C28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!C29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!C30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!C31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!C32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!C33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!C34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!C35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" cm="1">
+        <f t="array" ref="D2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!D4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!D5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!D6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!D7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!D8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!D9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!D10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!D11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!D12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!D13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!D14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!D15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!D16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!D17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!D18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!D19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!D20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!D21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!D22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!D23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!D24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!D25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!D26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!D27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!D28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!D29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!D30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!D31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!D32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!D33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!D34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!D35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!E4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!E5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!E6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!E7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!E8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!E9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!E10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!E11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!E12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!E13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!E14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!E15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!E16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!E17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!E18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!E19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!E20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!E21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!E22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!E23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!E24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!E25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!E26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!E27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!E28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!E29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!E30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!E31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!E32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!E33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!E34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!E35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="D2" s="10" cm="1">
-        <f t="array" ref="D2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!F4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!F5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!F6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!F7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!F8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!F9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!F10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!F11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!F12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!F13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!F14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!F15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!F16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!F17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!F18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!F19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!F20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!F21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!F22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!F23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!F24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!F25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!F26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!F27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!F28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!F29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!F30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!F31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!F32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!F33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!F34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!F35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="F2" s="10" cm="1">
+        <f t="array" ref="F2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!F4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!F5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!F6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!F7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!F8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!F9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!F10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!F11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!F12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!F13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!F14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!F15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!F16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!F17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!F18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!F19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!F20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!F21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!F22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!F23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!F24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!F25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!F26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!F27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!F28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!F29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!F30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!F31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!F32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!F33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!F34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!F35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="E2" s="10" cm="1">
-        <f t="array" ref="E2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!G4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!G5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!G6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!G7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!G8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!G9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!G10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!G11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!G12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!G13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!G14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!G15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!G16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!G17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!G18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!G19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!G20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!G21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!G22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!G23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!G24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!G25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!G26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!G27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!G28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!G29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!G30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!G31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!G32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!G33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!G34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!G35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="G2" s="10" cm="1">
+        <f t="array" ref="G2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!G4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!G5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!G6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!G7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!G8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!G9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!G10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!G11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!G12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!G13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!G14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!G15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!G16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!G17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!G18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!G19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!G20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!G21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!G22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!G23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!G24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!G25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!G26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!G27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!G28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!G29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!G30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!G31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!G32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!G33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!G34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!G35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="F2" s="10" cm="1">
-        <f t="array" ref="F2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!H4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!H5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!H6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!H7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!H8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!H9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!H10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!H11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!H12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!H13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!H14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!H15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!H16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!H17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!H18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!H19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!H20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!H21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!H22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!H23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!H24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!H25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!H26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!H27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!H28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!H29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!H30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!H31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!H32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!H33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!H34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!H35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="H2" s="10" cm="1">
+        <f t="array" ref="H2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!H4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!H5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!H6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!H7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!H8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!H9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!H10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!H11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!H12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!H13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!H14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!H15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!H16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!H17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!H18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!H19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!H20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!H21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!H22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!H23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!H24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!H25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!H26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!H27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!H28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!H29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!H30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!H31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!H32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!H33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!H34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!H35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="G2" s="10" cm="1">
-        <f t="array" ref="G2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!I4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!I5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!I6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!I7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!I8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!I9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!I10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!I11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!I12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!I13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!I14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!I15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!I16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!I17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!I18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!I19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!I20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!I21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!I22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!I23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!I24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!I25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!I26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!I27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!I28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!I29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!I30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!I31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!I32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!I33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!I34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!I35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="I2" s="10" cm="1">
+        <f t="array" ref="I2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!I4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!I5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!I6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!I7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!I8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!I9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!I10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!I11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!I12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!I13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!I14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!I15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!I16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!I17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!I18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!I19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!I20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!I21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!I22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!I23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!I24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!I25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!I26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!I27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!I28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!I29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!I30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!I31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!I32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!I33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!I34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!I35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="H2" s="10" cm="1">
-        <f t="array" ref="H2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!J4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!J5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!J6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!J7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!J8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!J9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!J10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!J11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!J12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!J13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!J14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!J15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!J16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!J17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!J18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!J19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!J20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!J21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!J22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!J23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!J24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!J25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!J26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!J27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!J28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!J29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!J30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!J31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!J32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!J33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!J34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!J35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>4</v>
-      </c>
-      <c r="I2" s="10" cm="1">
-        <f t="array" ref="I2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!K4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!K5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!K6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!K7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!K8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!K9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!K10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!K11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!K12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!K13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!K14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!K15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!K16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!K17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!K18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!K19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!K20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!K21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!K22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!K23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!K24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!K25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!K26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!K27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!K28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!K29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!K30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!K31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!K32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!K33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!K34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!K35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
       <c r="J2" s="10" cm="1">
-        <f t="array" ref="J2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!L4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!L5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!L6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!L7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!L8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!L9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!L10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!L11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!L12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!L13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!L14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!L15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!L16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!L17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!L18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!L19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!L20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!L21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!L22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!L23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!L24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!L25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!L26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!L27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!L28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!L29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!L30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!L31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!L32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!L33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!L34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!L35)*'شاخص‌های عمومی'!FK4</f>
+        <f t="array" ref="J2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!J4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!J5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!J6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!J7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!J8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!J9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!J10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!J11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!J12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!J13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!J14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!J15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!J16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!J17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!J18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!J19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!J20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!J21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!J22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!J23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!J24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!J25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!J26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!J27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!J28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!J29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!J30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!J31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!J32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!J33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!J34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!J35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="10" cm="1">
+        <f t="array" ref="K2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!K4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!K5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!K6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!K7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!K8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!K9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!K10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!K11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!K12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!K13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!K14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!K15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!K16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!K17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!K18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!K19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!K20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!K21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!K22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!K23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!K24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!K25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!K26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!K27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!K28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!K29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!K30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!K31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!K32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!K33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!K34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!K35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="L2" s="10" cm="1">
+        <f t="array" ref="L2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!L4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!L5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!L6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!L7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!L8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!L9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!L10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!L11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!L12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!L13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!L14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!L15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!L16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!L17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!L18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!L19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!L20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!L21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!L22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!L23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!L24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!L25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!L26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!L27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!L28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!L29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!L30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!L31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!L32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!L33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!L34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!L35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="K2" s="10" cm="1">
-        <f t="array" ref="K2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!M4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!M5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!M6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!M7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!M8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!M9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!M10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!M11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!M12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!M13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!M14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!M15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!M16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!M17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!M18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!M19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!M20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!M21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!M22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!M23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!M24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!M25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!M26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!M27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!M28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!M29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!M30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!M31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!M32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!M33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!M34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!M35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="M2" s="10" cm="1">
+        <f t="array" ref="M2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!M4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!M5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!M6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!M7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!M8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!M9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!M10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!M11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!M12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!M13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!M14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!M15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!M16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!M17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!M18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!M19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!M20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!M21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!M22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!M23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!M24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!M25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!M26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!M27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!M28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!M29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!M30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!M31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!M32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!M33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!M34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!M35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="L2" s="10" cm="1">
-        <f t="array" ref="L2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!N4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!N5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!N6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!N7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!N8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!N9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!N10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!N11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!N12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!N13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!N14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!N15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!N16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!N17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!N18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!N19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!N20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!N21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!N22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!N23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!N24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!N25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!N26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!N27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!N28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!N29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!N30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!N31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!N32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!N33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!N34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!N35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="N2" s="10" cm="1">
+        <f t="array" ref="N2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!N4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!N5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!N6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!N7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!N8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!N9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!N10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!N11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!N12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!N13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!N14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!N15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!N16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!N17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!N18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!N19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!N20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!N21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!N22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!N23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!N24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!N25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!N26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!N27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!N28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!N29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!N30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!N31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!N32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!N33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!N34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!N35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="M2" s="10" cm="1">
-        <f t="array" ref="M2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!O4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!O5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!O6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!O7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!O8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!O9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!O10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!O11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!O12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!O13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!O14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!O15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!O16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!O17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!O18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!O19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!O20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!O21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!O22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!O23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!O24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!O25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!O26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!O27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!O28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!O29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!O30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!O31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!O32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!O33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!O34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!O35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="N2" s="10" cm="1">
-        <f t="array" ref="N2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!P4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!P5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!P6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!P7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!P8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!P9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!P10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!P11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!P12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!P13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!P14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!P15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!P16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!P17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!P18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!P19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!P20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!P21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!P22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!P23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!P24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!P25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!P26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!P27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!P28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!P29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!P30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!P31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!P32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!P33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!P34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!P35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="O2" s="10" cm="1">
-        <f t="array" ref="O2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Q4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Q5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Q6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Q7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Q8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Q9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Q10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Q11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Q12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Q13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Q14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Q15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Q16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Q17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Q18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Q19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Q20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Q21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Q22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Q23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Q24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Q25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Q26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Q27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Q28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Q29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Q30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Q31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Q32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Q33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Q34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Q35)*'شاخص‌های عمومی'!FD4</f>
+        <f t="array" ref="O2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!O4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!O5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!O6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!O7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!O8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!O9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!O10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!O11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!O12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!O13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!O14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!O15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!O16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!O17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!O18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!O19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!O20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!O21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!O22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!O23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!O24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!O25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!O26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!O27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!O28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!O29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!O30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!O31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!O32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!O33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!O34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!O35)*'شاخص‌های عمومی'!FN4</f>
         <v>4</v>
       </c>
       <c r="P2" s="10" cm="1">
-        <f t="array" ref="P2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!R4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!R5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!R6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!R7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!R8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!R9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!R10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!R11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!R12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!R13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!R14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!R15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!R16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!R17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!R18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!R19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!R20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!R21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!R22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!R23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!R24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!R25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!R26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!R27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!R28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!R29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!R30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!R31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!R32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!R33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!R34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!R35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="P2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!P4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!P5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!P6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!P7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!P8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!P9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!P10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!P11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!P12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!P13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!P14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!P15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!P16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!P17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!P18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!P19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!P20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!P21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!P22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!P23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!P24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!P25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!P26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!P27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!P28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!P29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!P30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!P31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!P32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!P33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!P34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!P35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="10" cm="1">
+        <f t="array" ref="Q2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Q4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Q5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Q6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Q7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Q8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Q9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Q10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Q11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Q12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Q13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Q14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Q15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Q16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Q17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Q18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Q19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Q20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Q21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Q22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Q23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Q24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Q25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Q26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Q27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Q28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Q29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Q30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Q31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Q32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Q33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Q34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Q35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="R2" s="10" cm="1">
+        <f t="array" ref="R2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!R4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!R5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!R6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!R7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!R8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!R9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!R10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!R11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!R12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!R13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!R14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!R15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!R16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!R17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!R18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!R19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!R20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!R21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!R22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!R23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!R24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!R25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!R26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!R27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!R28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!R29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!R30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!R31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!R32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!R33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!R34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!R35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="Q2" s="10" cm="1">
-        <f t="array" ref="Q2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!S4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!S5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!S6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!S7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!S8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!S9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!S10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!S11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!S12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!S13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!S14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!S15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!S16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!S17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!S18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!S19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!S20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!S21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!S22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!S23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!S24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!S25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!S26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!S27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!S28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!S29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!S30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!S31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!S32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!S33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!S34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!S35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="S2" s="10" cm="1">
+        <f t="array" ref="S2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!S4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!S5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!S6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!S7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!S8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!S9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!S10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!S11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!S12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!S13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!S14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!S15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!S16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!S17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!S18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!S19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!S20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!S21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!S22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!S23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!S24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!S25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!S26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!S27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!S28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!S29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!S30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!S31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!S32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!S33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!S34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!S35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="R2" s="10" cm="1">
-        <f t="array" ref="R2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!T4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!T5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!T6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!T7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!T8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!T9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!T10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!T11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!T12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!T13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!T14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!T15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!T16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!T17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!T18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!T19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!T20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!T21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!T22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!T23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!T24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!T25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!T26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!T27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!T28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!T29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!T30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!T31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!T32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!T33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!T34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!T35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="T2" s="10" cm="1">
+        <f t="array" ref="T2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!T4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!T5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!T6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!T7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!T8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!T9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!T10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!T11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!T12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!T13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!T14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!T15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!T16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!T17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!T18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!T19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!T20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!T21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!T22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!T23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!T24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!T25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!T26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!T27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!T28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!T29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!T30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!T31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!T32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!T33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!T34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!T35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="S2" s="10" cm="1">
-        <f t="array" ref="S2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!U4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!U5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!U6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!U7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!U8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!U9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!U10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!U11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!U12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!U13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!U14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!U15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!U16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!U17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!U18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!U19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!U20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!U21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!U22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!U23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!U24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!U25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!U26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!U27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!U28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!U29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!U30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!U31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!U32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!U33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!U34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!U35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="U2" s="10" cm="1">
+        <f t="array" ref="U2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!U4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!U5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!U6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!U7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!U8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!U9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!U10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!U11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!U12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!U13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!U14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!U15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!U16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!U17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!U18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!U19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!U20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!U21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!U22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!U23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!U24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!U25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!U26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!U27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!U28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!U29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!U30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!U31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!U32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!U33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!U34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!U35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="T2" s="10" cm="1">
-        <f t="array" ref="T2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!V35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="V2" s="10" cm="1">
+        <f t="array" ref="V2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!V4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!V5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!V6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!V7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!V8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!V9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!V10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!V11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!V12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!V13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!V14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!V15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!V16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!V17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!V18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!V19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!V20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!V21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!V22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!V23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!V24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!V25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!V26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!V27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!V28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!V29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!V30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!V31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!V32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!V33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!V34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!V35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="U2" s="10" cm="1">
-        <f t="array" ref="U2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!W4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!W5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!W6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!W7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!W8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!W9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!W10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!W11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!W12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!W13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!W14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!W15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!W16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!W17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!W18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!W19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!W20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!W21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!W22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!W23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!W24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!W25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!W26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!W27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!W28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!W29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!W30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!W31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!W32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!W33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!W34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!W35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="W2" s="10" cm="1">
+        <f t="array" ref="W2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!W4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!W5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!W6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!W7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!W8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!W9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!W10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!W11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!W12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!W13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!W14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!W15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!W16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!W17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!W18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!W19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!W20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!W21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!W22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!W23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!W24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!W25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!W26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!W27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!W28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!W29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!W30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!W31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!W32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!W33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!W34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!W35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="V2" s="10" cm="1">
-        <f t="array" ref="V2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!X4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!X5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!X6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!X7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!X8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!X9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!X10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!X11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!X12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!X13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!X14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!X15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!X16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!X17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!X18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!X19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!X20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!X21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!X22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!X23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!X24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!X25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!X26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!X27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!X28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!X29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!X30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!X31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!X32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!X33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!X34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!X35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="W2" s="10" cm="1">
-        <f t="array" ref="W2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Y4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Y5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Y6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Y7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Y8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Y9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Y10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Y11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Y12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Y13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Y14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Y15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Y16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Y17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Y18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Y19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Y20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Y21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Y22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Y23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Y24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Y25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Y26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Y27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Y28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Y29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Y30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Y31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Y32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Y33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Y34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Y35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="X2" s="10" cm="1">
+        <f t="array" ref="X2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!X4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!X5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!X6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!X7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!X8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!X9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!X10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!X11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!X12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!X13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!X14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!X15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!X16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!X17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!X18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!X19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!X20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!X21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!X22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!X23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!X24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!X25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!X26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!X27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!X28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!X29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!X30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!X31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!X32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!X33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!X34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!X35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="Y2" s="10" cm="1">
+        <f t="array" ref="Y2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Y4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Y5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Y6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Y7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Y8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Y9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Y10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Y11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Y12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Y13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Y14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Y15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Y16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Y17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Y18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Y19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Y20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Y21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Y22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Y23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Y24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Y25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Y26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Y27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Y28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Y29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Y30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Y31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Y32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Y33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Y34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Y35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="X2" s="10" cm="1">
-        <f t="array" ref="X2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Z4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Z5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Z6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Z7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Z8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Z9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Z10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Z11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Z12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Z13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Z14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Z15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Z16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Z17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Z18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Z19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Z20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Z21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Z22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Z23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Z24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Z25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Z26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Z27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Z28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Z29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Z30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Z31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Z32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Z33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Z34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Z35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="Z2" s="10" cm="1">
+        <f t="array" ref="Z2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!Z4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!Z5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!Z6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!Z7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!Z8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!Z9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!Z10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!Z11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!Z12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!Z13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!Z14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!Z15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!Z16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!Z17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!Z18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!Z19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!Z20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!Z21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!Z22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!Z23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!Z24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!Z25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!Z26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!Z27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!Z28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!Z29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!Z30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!Z31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!Z32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!Z33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!Z34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!Z35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="Y2" s="10" cm="1">
-        <f t="array" ref="Y2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AA35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="AA2" s="10" cm="1">
+        <f t="array" ref="AA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AA35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="Z2" s="10" cm="1">
-        <f t="array" ref="Z2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AB35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="AA2" s="10" cm="1">
-        <f t="array" ref="AA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AC35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="AB2" s="10" cm="1">
-        <f t="array" ref="AB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AD35)*'شاخص‌های عمومی'!FD4</f>
+        <f t="array" ref="AB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AB35)*'شاخص‌های عمومی'!FN4</f>
         <v>4</v>
       </c>
       <c r="AC2" s="10" cm="1">
-        <f t="array" ref="AC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AE35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="AC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AC35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="AD2" s="10" cm="1">
+        <f t="array" ref="AD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AD35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="AE2" s="10" cm="1">
+        <f t="array" ref="AE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AE35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="AD2" s="10" cm="1">
-        <f t="array" ref="AD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AF35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="AF2" s="10" cm="1">
+        <f t="array" ref="AF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AF35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="AE2" s="10" cm="1">
-        <f t="array" ref="AE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AG35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="AG2" s="10" cm="1">
+        <f t="array" ref="AG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AG35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="AF2" s="10" cm="1">
-        <f t="array" ref="AF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AH35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="AH2" s="10" cm="1">
+        <f t="array" ref="AH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AH35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="AG2" s="10" cm="1">
-        <f t="array" ref="AG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AI35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="AI2" s="10" cm="1">
+        <f t="array" ref="AI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AI35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="AH2" s="10" cm="1">
-        <f t="array" ref="AH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AJ35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="AJ2" s="10" cm="1">
+        <f t="array" ref="AJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AJ35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="AI2" s="10" cm="1">
-        <f t="array" ref="AI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AK35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="10" cm="1">
-        <f t="array" ref="AJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AL35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="AK2" s="10" cm="1">
+        <f t="array" ref="AK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="AL2" s="10" cm="1">
+        <f t="array" ref="AL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AL35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="AK2" s="10" cm="1">
-        <f t="array" ref="AK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AM35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="AM2" s="10" cm="1">
+        <f t="array" ref="AM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AM35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="AL2" s="10" cm="1">
-        <f t="array" ref="AL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AN35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="AN2" s="10" cm="1">
+        <f t="array" ref="AN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AN35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="AM2" s="10" cm="1">
-        <f t="array" ref="AM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AO35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="AN2" cm="1">
-        <f t="array" ref="AN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AP35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="AO2" s="10" cm="1">
-        <f t="array" ref="AO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AQ35)*'شاخص‌های عمومی'!FD4</f>
-        <v>4</v>
-      </c>
-      <c r="AP2" s="10" cm="1">
-        <f t="array" ref="AP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AR35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="AO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="AP2" cm="1">
+        <f t="array" ref="AP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AP35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="10" cm="1">
+        <f t="array" ref="AQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AQ35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="AR2" s="10" cm="1">
+        <f t="array" ref="AR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AR35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="AQ2" s="10" cm="1">
-        <f t="array" ref="AQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AS35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="AS2" s="10" cm="1">
+        <f t="array" ref="AS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AS35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="AR2" s="10" cm="1">
-        <f t="array" ref="AR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AT35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="AT2" s="10" cm="1">
+        <f t="array" ref="AT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AT35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="AS2" s="10" cm="1">
-        <f t="array" ref="AS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AU35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="AU2" s="10" cm="1">
+        <f t="array" ref="AU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AU35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="AT2" s="10" cm="1">
-        <f t="array" ref="AT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AV35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="AV2" s="10" cm="1">
+        <f t="array" ref="AV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AV35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="AU2" s="10" cm="1">
-        <f t="array" ref="AU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AW35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="AW2" s="10" cm="1">
+        <f t="array" ref="AW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AW35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="AV2" s="10" cm="1">
-        <f t="array" ref="AV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AX35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="AW2" s="10" cm="1">
-        <f t="array" ref="AW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AY35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="AX2" s="10" cm="1">
+        <f t="array" ref="AX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="AY2" s="10" cm="1">
+        <f t="array" ref="AY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AY35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="AX2" s="10" cm="1">
-        <f t="array" ref="AX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AZ35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="AZ2" s="10" cm="1">
+        <f t="array" ref="AZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!AZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!AZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!AZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!AZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!AZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!AZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!AZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!AZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!AZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!AZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!AZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!AZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!AZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!AZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!AZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!AZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!AZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!AZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!AZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!AZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!AZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!AZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!AZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!AZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!AZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!AZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!AZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!AZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!AZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!AZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!AZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!AZ35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="AY2" s="10" cm="1">
-        <f t="array" ref="AY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BA35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="BA2" s="10" cm="1">
+        <f t="array" ref="BA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BA35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="AZ2" s="10" cm="1">
-        <f t="array" ref="AZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BB35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="BA2" s="10" cm="1">
-        <f t="array" ref="BA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BC35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="BB2" s="10" cm="1">
-        <f t="array" ref="BB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BD35)*'شاخص‌های عمومی'!FD4</f>
+        <f t="array" ref="BB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BB35)*'شاخص‌های عمومی'!FN4</f>
         <v>4</v>
       </c>
       <c r="BC2" s="10" cm="1">
-        <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BE35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="BC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BC35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="BD2" s="10" cm="1">
+        <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BD35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="BE2" s="10" cm="1">
+        <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BE35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="BD2" s="10" cm="1">
-        <f t="array" ref="BD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BF35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="BF2" s="10" cm="1">
+        <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BF35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="BE2" s="10" cm="1">
-        <f t="array" ref="BE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BG35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="BG2" s="10" cm="1">
+        <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BG35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="BF2" s="10" cm="1">
-        <f t="array" ref="BF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BH35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="BH2" s="10" cm="1">
+        <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BH35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="BG2" s="10" cm="1">
-        <f t="array" ref="BG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BI35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="BI2" s="10" cm="1">
+        <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BI35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="BH2" s="10" cm="1">
-        <f t="array" ref="BH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BJ35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="BJ2" s="10" cm="1">
+        <f t="array" ref="BJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BJ35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="BI2" s="10" cm="1">
-        <f t="array" ref="BI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BK35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="BJ2" s="10" cm="1">
-        <f t="array" ref="BJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BL35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="BK2" s="10" cm="1">
+        <f t="array" ref="BK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="BL2" s="10" cm="1">
+        <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BL35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="BK2" s="10" cm="1">
-        <f t="array" ref="BK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BM35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="BM2" s="10" cm="1">
+        <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BM35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="BL2" s="10" cm="1">
-        <f t="array" ref="BL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BN35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="BN2" s="10" cm="1">
+        <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BN35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="BM2" s="10" cm="1">
-        <f t="array" ref="BM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BO35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="BN2" s="10" cm="1">
-        <f t="array" ref="BN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BP35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="BO2" s="10" cm="1">
-        <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BQ35)*'شاخص‌های عمومی'!FD4</f>
+        <f t="array" ref="BO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BO35)*'شاخص‌های عمومی'!FN4</f>
         <v>4</v>
       </c>
       <c r="BP2" s="10" cm="1">
-        <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BR35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="BP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BP35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="10" cm="1">
+        <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BQ35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="BR2" s="10" cm="1">
+        <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BR35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="BQ2" s="10" cm="1">
-        <f t="array" ref="BQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BS35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="BS2" s="10" cm="1">
+        <f t="array" ref="BS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BS35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="BR2" s="10" cm="1">
-        <f t="array" ref="BR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BT35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="BT2" s="10" cm="1">
+        <f t="array" ref="BT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BT35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="BS2" s="10" cm="1">
-        <f t="array" ref="BS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BU35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="BU2" s="10" cm="1">
+        <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BU35)*'شاخص‌های عمومی'!FH4</f>
         <v>6</v>
       </c>
-      <c r="BT2" s="10" cm="1">
-        <f t="array" ref="BT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BV35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="BV2" s="10" cm="1">
+        <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BV35)*'شاخص‌های عمومی'!FI4</f>
         <v>10</v>
       </c>
-      <c r="BU2" s="10" cm="1">
-        <f t="array" ref="BU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BW35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="BW2" s="10" cm="1">
+        <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BW35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="BV2" s="10" cm="1">
-        <f t="array" ref="BV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BX35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="BW2" s="10" cm="1">
-        <f t="array" ref="BW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BY35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="BX2" s="10" cm="1">
+        <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="BY2" s="10" cm="1">
+        <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BY35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="BX2" s="10" cm="1">
-        <f t="array" ref="BX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BZ35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="BZ2" s="10" cm="1">
+        <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!BZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!BZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!BZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!BZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!BZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!BZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!BZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!BZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!BZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!BZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!BZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!BZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!BZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!BZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!BZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!BZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!BZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!BZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!BZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!BZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!BZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!BZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!BZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!BZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!BZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!BZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!BZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!BZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!BZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!BZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!BZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!BZ35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="BY2" s="10" cm="1">
-        <f t="array" ref="BY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CA35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="CA2" s="10" cm="1">
+        <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CA35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="BZ2" s="10" cm="1">
-        <f t="array" ref="BZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CB35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="CA2" s="10" cm="1">
-        <f t="array" ref="CA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CD35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
       <c r="CB2" s="10" cm="1">
-        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CE35)*'شاخص‌های عمومی'!FD4</f>
+        <f t="array" ref="CB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CB35)*'شاخص‌های عمومی'!FN4</f>
         <v>4</v>
       </c>
       <c r="CC2" s="10" cm="1">
-        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CF35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="CC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CD35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="CD2" s="10" cm="1">
+        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CE35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="CE2" s="10" cm="1">
+        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CF35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="CD2" s="10" cm="1">
-        <f t="array" ref="CD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CG35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="CF2" s="10" cm="1">
+        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CG35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="CE2" s="10" cm="1">
-        <f t="array" ref="CE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CH35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="CG2" s="10" cm="1">
+        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CH35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="CF2" s="10" cm="1">
-        <f t="array" ref="CF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CI35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="CH2" s="10" cm="1">
+        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CI35)*'شاخص‌های عمومی'!FH4</f>
         <v>15</v>
       </c>
-      <c r="CG2" s="10" cm="1">
-        <f t="array" ref="CG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CJ35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="CI2" s="10" cm="1">
+        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CJ35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="CH2" s="10" cm="1">
-        <f t="array" ref="CH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CK35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="CI2" s="10" cm="1">
-        <f t="array" ref="CI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CL35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="CJ2" s="10" cm="1">
+        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="CK2" s="10" cm="1">
+        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CL35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="CJ2" s="10" cm="1">
-        <f t="array" ref="CJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CM35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="CL2" s="10" cm="1">
+        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CM35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="CK2" s="10" cm="1">
-        <f t="array" ref="CK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CN35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="CM2" s="10" cm="1">
+        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CN35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="CL2" s="10" cm="1">
-        <f t="array" ref="CL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CO35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="CM2" s="10" cm="1">
-        <f t="array" ref="CM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CP35)*'شاخص‌های عمومی'!FO4</f>
+      <c r="CN2" s="10" cm="1">
+        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="CO2" s="10" cm="1">
+        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CP35)*'شاخص‌های عمومی'!FO4</f>
         <v>8</v>
       </c>
-      <c r="CN2" s="10" cm="1">
-        <f t="array" ref="CN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CQ35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
-      <c r="CO2" s="10" cm="1">
-        <f t="array" ref="CO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CR35)*'شاخص‌های عمومی'!FD4</f>
-        <v>4</v>
-      </c>
       <c r="CP2" s="10" cm="1">
-        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CS35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="CP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CQ35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="CQ2" s="10" cm="1">
+        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CR35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="CR2" s="10" cm="1">
+        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CS35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="CQ2" s="10" cm="1">
-        <f t="array" ref="CQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CT35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="CS2" s="10" cm="1">
+        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CT35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="CR2" s="10" cm="1">
-        <f t="array" ref="CR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CU35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="CT2" s="10" cm="1">
+        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CU35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="CS2" s="10" cm="1">
-        <f t="array" ref="CS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CV35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="CU2" s="10" cm="1">
+        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CV35)*'شاخص‌های عمومی'!FH4</f>
         <v>15</v>
       </c>
-      <c r="CT2" s="10" cm="1">
-        <f t="array" ref="CT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CW35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="CV2" s="10" cm="1">
+        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CW35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="CU2" s="10" cm="1">
-        <f t="array" ref="CU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CX35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="CV2" s="10" cm="1">
-        <f t="array" ref="CV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CY35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="CW2" s="10" cm="1">
+        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="CX2" s="10" cm="1">
+        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CY35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="CW2" s="10" cm="1">
-        <f t="array" ref="CW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CZ35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="CY2" s="10" cm="1">
+        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!CZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!CZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!CZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!CZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!CZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!CZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!CZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!CZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!CZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!CZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!CZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!CZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!CZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!CZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!CZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!CZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!CZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!CZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!CZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!CZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!CZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!CZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!CZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!CZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!CZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!CZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!CZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!CZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!CZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!CZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!CZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!CZ35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="CX2" s="10" cm="1">
-        <f t="array" ref="CX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DA35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="CZ2" s="10" cm="1">
+        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DA35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="CY2" s="10" cm="1">
-        <f t="array" ref="CY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DB35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="CZ2" s="10" cm="1">
-        <f t="array" ref="CZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DC35)*'شاخص‌های عمومی'!FO4</f>
+      <c r="DA2" s="10" cm="1">
+        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DB35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="DB2" s="10" cm="1">
+        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DC35)*'شاخص‌های عمومی'!FO4</f>
         <v>8</v>
       </c>
-      <c r="DA2" s="10" cm="1">
-        <f t="array" ref="DA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DD35)*'شاخص‌های عمومی'!FC4</f>
-        <v>2</v>
-      </c>
-      <c r="DB2" s="10" cm="1">
-        <f t="array" ref="DB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DE35)*'شاخص‌های عمومی'!FD4</f>
-        <v>4</v>
-      </c>
       <c r="DC2" s="10" cm="1">
-        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DF35)*'شاخص‌های عمومی'!FE4</f>
+        <f t="array" ref="DC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DD4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DD5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DD6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DD7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DD8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DD9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DD10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DD11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DD12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DD13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DD14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DD15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DD16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DD17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DD18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DD19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DD20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DD21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DD22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DD23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DD24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DD25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DD26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DD27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DD28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DD29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DD30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DD31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DD32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DD33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DD34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DD35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="DD2" s="10" cm="1">
+        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DE35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="DE2" s="10" cm="1">
+        <f t="array" ref="DE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DF35)*'شاخص‌های عمومی'!FE4</f>
         <v>6</v>
       </c>
-      <c r="DD2" s="10" cm="1">
-        <f t="array" ref="DD2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DG35)*'شاخص‌های عمومی'!FF4</f>
+      <c r="DF2" s="10" cm="1">
+        <f t="array" ref="DF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DG35)*'شاخص‌های عمومی'!FF4</f>
         <v>8</v>
       </c>
-      <c r="DE2" s="10" cm="1">
-        <f t="array" ref="DE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DH35)*'شاخص‌های عمومی'!FG4</f>
+      <c r="DG2" s="10" cm="1">
+        <f t="array" ref="DG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DH35)*'شاخص‌های عمومی'!FG4</f>
         <v>8</v>
       </c>
-      <c r="DF2" s="10" cm="1">
-        <f t="array" ref="DF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DI35)*'شاخص‌های عمومی'!FH4</f>
+      <c r="DH2" s="10" cm="1">
+        <f t="array" ref="DH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DI35)*'شاخص‌های عمومی'!FH4</f>
         <v>15</v>
       </c>
-      <c r="DG2" s="10" cm="1">
-        <f t="array" ref="DG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DJ35)*'شاخص‌های عمومی'!FI4</f>
+      <c r="DI2" s="10" cm="1">
+        <f t="array" ref="DI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DJ35)*'شاخص‌های عمومی'!FI4</f>
         <v>8</v>
       </c>
-      <c r="DH2" s="10" cm="1">
-        <f t="array" ref="DH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DK35)*'شاخص‌های عمومی'!FJ4</f>
-        <v>3</v>
-      </c>
-      <c r="DI2" s="10" cm="1">
-        <f t="array" ref="DI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DL35)*'شاخص‌های عمومی'!FK4</f>
+      <c r="DJ2" s="10" cm="1">
+        <f t="array" ref="DJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="DK2" s="10" cm="1">
+        <f t="array" ref="DK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DL35)*'شاخص‌های عمومی'!FK4</f>
         <v>7</v>
       </c>
-      <c r="DJ2" s="10" cm="1">
-        <f t="array" ref="DJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DM35)*'شاخص‌های عمومی'!FL4</f>
+      <c r="DL2" s="10" cm="1">
+        <f t="array" ref="DL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DM35)*'شاخص‌های عمومی'!FL4</f>
         <v>8</v>
       </c>
-      <c r="DK2" s="10" cm="1">
-        <f t="array" ref="DK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DN35)*'شاخص‌های عمومی'!FM4</f>
+      <c r="DM2" s="10" cm="1">
+        <f t="array" ref="DM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DN35)*'شاخص‌های عمومی'!FM4</f>
         <v>15</v>
       </c>
-      <c r="DL2" s="10" cm="1">
-        <f t="array" ref="DL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DO35)*'شاخص‌های عمومی'!FN4</f>
-        <v>4</v>
-      </c>
-      <c r="DM2" s="10" cm="1">
-        <f t="array" ref="DM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DP35)*'شاخص‌های عمومی'!FO4</f>
+      <c r="DN2" s="10" cm="1">
+        <f t="array" ref="DN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="DO2" s="10" cm="1">
+        <f t="array" ref="DO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DP35)*'شاخص‌های عمومی'!FO4</f>
         <v>8</v>
+      </c>
+      <c r="DP2" s="10" cm="1">
+        <f t="array" ref="DP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DQ35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="DQ2" s="10" cm="1">
+        <f t="array" ref="DQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DR4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DR5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DR6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DR7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DR8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DR9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DR10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DR11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DR12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DR13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DR14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DR15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DR16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DR17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DR18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DR19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DR20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DR21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DR22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DR23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DR24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DR25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DR26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DR27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DR28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DR29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DR30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DR31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DR32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DR33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DR34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DR35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="DR2" s="10" cm="1">
+        <f t="array" ref="DR2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DS4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DS5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DS6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DS7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DS8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DS9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DS10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DS11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DS12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DS13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DS14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DS15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DS16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DS17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DS18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DS19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DS20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DS21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DS22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DS23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DS24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DS25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DS26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DS27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DS28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DS29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DS30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DS31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DS32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DS33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DS34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DS35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="DS2" s="10" cm="1">
+        <f t="array" ref="DS2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DT4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DT5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DT6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DT7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DT8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DT9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DT10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DT11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DT12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DT13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DT14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DT15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DT16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DT17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DT18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DT19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DT20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DT21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DT22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DT23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DT24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DT25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DT26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DT27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DT28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DT29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DT30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DT31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DT32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DT33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DT34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DT35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="DT2" s="10" cm="1">
+        <f t="array" ref="DT2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DU35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="DU2" s="10" cm="1">
+        <f t="array" ref="DU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DV35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="DV2" s="10" cm="1">
+        <f t="array" ref="DV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DW35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="DW2" s="10" cm="1">
+        <f t="array" ref="DW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="DX2" s="10" cm="1">
+        <f t="array" ref="DX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DY35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="DY2" s="10" cm="1">
+        <f t="array" ref="DY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!DZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!DZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!DZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!DZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!DZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!DZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!DZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!DZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!DZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!DZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!DZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!DZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!DZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!DZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!DZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!DZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!DZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!DZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!DZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!DZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!DZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!DZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!DZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!DZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!DZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!DZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!DZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!DZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!DZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!DZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!DZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!DZ35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="DZ2" s="10" cm="1">
+        <f t="array" ref="DZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EA35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="EA2" s="10" cm="1">
+        <f t="array" ref="EA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EB35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="EB2" s="10" cm="1">
+        <f t="array" ref="EB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EC35)*'شاخص‌های عمومی'!FO4</f>
+        <v>8</v>
+      </c>
+      <c r="EC2" s="10" cm="1">
+        <f t="array" ref="EC2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!ED4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!ED5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!ED6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!ED7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!ED8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!ED9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!ED10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!ED11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!ED12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!ED13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!ED14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!ED15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!ED16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!ED17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!ED18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!ED19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!ED20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!ED21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!ED22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!ED23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!ED24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!ED25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!ED26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!ED27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!ED28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!ED29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!ED30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!ED31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!ED32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!ED33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!ED34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!ED35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="ED2" s="10" cm="1">
+        <f t="array" ref="ED2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EE4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EE5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EE6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EE7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EE8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EE9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EE10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EE11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EE12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EE13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EE14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EE15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EE16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EE17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EE18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EE19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EE20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EE21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EE22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EE23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EE24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EE25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EE26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EE27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EE28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EE29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EE30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EE31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EE32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EE33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EE34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EE35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="EE2" s="10" cm="1">
+        <f t="array" ref="EE2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EF4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EF5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EF6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EF7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EF8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EF9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EF10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EF11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EF12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EF13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EF14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EF15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EF16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EF17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EF18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EF19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EF20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EF21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EF22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EF23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EF24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EF25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EF26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EF27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EF28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EF29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EF30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EF31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EF32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EF33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EF34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EF35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="EF2" s="10" cm="1">
+        <f t="array" ref="EF2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EG4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EG5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EG6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EG7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EG8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EG9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EG10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EG11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EG12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EG13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EG14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EG15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EG16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EG17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EG18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EG19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EG20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EG21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EG22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EG23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EG24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EG25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EG26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EG27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EG28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EG29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EG30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EG31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EG32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EG33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EG34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EG35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="EG2" s="10" cm="1">
+        <f t="array" ref="EG2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EH4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EH5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EH6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EH7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EH8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EH9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EH10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EH11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EH12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EH13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EH14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EH15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EH16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EH17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EH18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EH19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EH20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EH21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EH22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EH23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EH24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EH25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EH26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EH27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EH28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EH29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EH30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EH31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EH32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EH33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EH34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EH35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="EH2" s="10" cm="1">
+        <f t="array" ref="EH2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EI4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EI5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EI6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EI7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EI8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EI9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EI10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EI11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EI12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EI13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EI14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EI15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EI16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EI17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EI18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EI19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EI20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EI21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EI22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EI23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EI24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EI25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EI26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EI27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EI28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EI29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EI30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EI31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EI32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EI33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EI34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EI35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="EI2" s="10" cm="1">
+        <f t="array" ref="EI2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EJ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EJ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EJ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EJ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EJ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EJ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EJ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EJ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EJ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EJ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EJ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EJ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EJ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EJ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EJ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EJ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EJ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EJ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EJ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EJ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EJ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EJ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EJ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EJ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EJ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EJ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EJ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EJ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EJ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EJ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EJ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EJ35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="EJ2" s="10" cm="1">
+        <f t="array" ref="EJ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EK4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EK5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EK6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EK7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EK8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EK9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EK10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EK11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EK12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EK13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EK14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EK15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EK16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EK17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EK18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EK19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EK20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EK21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EK22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EK23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EK24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EK25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EK26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EK27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EK28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EK29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EK30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EK31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EK32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EK33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EK34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EK35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="EK2" s="10" cm="1">
+        <f t="array" ref="EK2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EL4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EL5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EL6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EL7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EL8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EL9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EL10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EL11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EL12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EL13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EL14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EL15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EL16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EL17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EL18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EL19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EL20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EL21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EL22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EL23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EL24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EL25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EL26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EL27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EL28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EL29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EL30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EL31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EL32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EL33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EL34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EL35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="EL2" s="10" cm="1">
+        <f t="array" ref="EL2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EM4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EM5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EM6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EM7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EM8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EM9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EM10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EM11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EM12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EM13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EM14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EM15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EM16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EM17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EM18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EM19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EM20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EM21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EM22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EM23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EM24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EM25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EM26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EM27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EM28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EM29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EM30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EM31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EM32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EM33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EM34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EM35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="EM2" s="10" cm="1">
+        <f t="array" ref="EM2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EN4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EN5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EN6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EN7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EN8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EN9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EN10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EN11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EN12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EN13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EN14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EN15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EN16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EN17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EN18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EN19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EN20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EN21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EN22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EN23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EN24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EN25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EN26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EN27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EN28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EN29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EN30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EN31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EN32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EN33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EN34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EN35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="EN2" s="10" cm="1">
+        <f t="array" ref="EN2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EO4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EO5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EO6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EO7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EO8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EO9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EO10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EO11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EO12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EO13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EO14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EO15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EO16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EO17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EO18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EO19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EO20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EO21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EO22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EO23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EO24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EO25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EO26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EO27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EO28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EO29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EO30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EO31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EO32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EO33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EO34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EO35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="EO2" s="10" cm="1">
+        <f t="array" ref="EO2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EP4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EP5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EP6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EP7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EP8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EP9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EP10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EP11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EP12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EP13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EP14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EP15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EP16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EP17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EP18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EP19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EP20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EP21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EP22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EP23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EP24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EP25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EP26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EP27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EP28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EP29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EP30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EP31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EP32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EP33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EP34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EP35)*'شاخص‌های عمومی'!FO4</f>
+        <v>8</v>
+      </c>
+      <c r="EP2" s="10" cm="1">
+        <f t="array" ref="EP2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EQ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EQ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EQ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EQ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EQ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EQ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EQ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EQ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EQ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EQ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EQ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EQ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EQ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EQ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EQ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EQ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EQ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EQ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EQ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EQ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EQ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EQ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EQ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EQ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EQ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EQ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EQ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EQ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EQ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EQ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EQ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EQ35)*'شاخص‌های عمومی'!FC4</f>
+        <v>2</v>
+      </c>
+      <c r="EQ2" s="10" cm="1">
+        <f t="array" ref="EQ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!ER4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!ER5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!ER6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!ER7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!ER8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!ER9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!ER10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!ER11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!ER12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!ER13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!ER14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!ER15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!ER16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!ER17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!ER18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!ER19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!ER20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!ER21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!ER22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!ER23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!ER24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!ER25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!ER26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!ER27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!ER28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!ER29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!ER30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!ER31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!ER32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!ER33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!ER34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!ER35)*'شاخص‌های عمومی'!FD4</f>
+        <v>4</v>
+      </c>
+      <c r="ER2" s="10" cm="1">
+        <f t="array" ref="ER2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!ES4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!ES5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!ES6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!ES7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!ES8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!ES9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!ES10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!ES11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!ES12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!ES13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!ES14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!ES15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!ES16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!ES17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!ES18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!ES19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!ES20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!ES21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!ES22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!ES23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!ES24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!ES25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!ES26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!ES27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!ES28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!ES29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!ES30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!ES31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!ES32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!ES33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!ES34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!ES35)*'شاخص‌های عمومی'!FE4</f>
+        <v>6</v>
+      </c>
+      <c r="ES2" s="10" cm="1">
+        <f t="array" ref="ES2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!ET4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!ET5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!ET6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!ET7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!ET8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!ET9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!ET10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!ET11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!ET12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!ET13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!ET14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!ET15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!ET16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!ET17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!ET18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!ET19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!ET20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!ET21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!ET22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!ET23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!ET24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!ET25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!ET26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!ET27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!ET28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!ET29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!ET30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!ET31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!ET32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!ET33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!ET34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!ET35)*'شاخص‌های عمومی'!FF4</f>
+        <v>8</v>
+      </c>
+      <c r="ET2" s="10" cm="1">
+        <f t="array" ref="ET2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EU4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EU5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EU6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EU7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EU8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EU9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EU10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EU11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EU12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EU13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EU14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EU15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EU16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EU17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EU18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EU19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EU20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EU21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EU22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EU23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EU24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EU25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EU26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EU27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EU28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EU29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EU30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EU31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EU32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EU33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EU34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EU35)*'شاخص‌های عمومی'!FG4</f>
+        <v>8</v>
+      </c>
+      <c r="EU2" s="10" cm="1">
+        <f t="array" ref="EU2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EV4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EV5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EV6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EV7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EV8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EV9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EV10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EV11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EV12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EV13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EV14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EV15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EV16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EV17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EV18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EV19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EV20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EV21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EV22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EV23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EV24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EV25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EV26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EV27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EV28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EV29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EV30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EV31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EV32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EV33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EV34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EV35)*'شاخص‌های عمومی'!FH4</f>
+        <v>15</v>
+      </c>
+      <c r="EV2" s="10" cm="1">
+        <f t="array" ref="EV2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EW4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EW5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EW6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EW7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EW8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EW9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EW10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EW11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EW12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EW13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EW14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EW15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EW16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EW17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EW18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EW19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EW20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EW21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EW22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EW23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EW24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EW25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EW26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EW27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EW28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EW29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EW30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EW31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EW32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EW33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EW34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EW35)*'شاخص‌های عمومی'!FI4</f>
+        <v>8</v>
+      </c>
+      <c r="EW2" s="10" cm="1">
+        <f t="array" ref="EW2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EX4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EX5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EX6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EX7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EX8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EX9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EX10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EX11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EX12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EX13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EX14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EX15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EX16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EX17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EX18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EX19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EX20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EX21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EX22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EX23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EX24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EX25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EX26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EX27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EX28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EX29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EX30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EX31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EX32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EX33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EX34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EX35)*'شاخص‌های عمومی'!FJ4</f>
+        <v>3</v>
+      </c>
+      <c r="EX2" s="10" cm="1">
+        <f t="array" ref="EX2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EY4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EY5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EY6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EY7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EY8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EY9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EY10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EY11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EY12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EY13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EY14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EY15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EY16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EY17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EY18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EY19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EY20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EY21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EY22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EY23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EY24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EY25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EY26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EY27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EY28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EY29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EY30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EY31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EY32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EY33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EY34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EY35)*'شاخص‌های عمومی'!FK4</f>
+        <v>7</v>
+      </c>
+      <c r="EY2" s="10" cm="1">
+        <f t="array" ref="EY2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!EZ4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!EZ5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!EZ6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!EZ7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!EZ8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!EZ9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!EZ10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!EZ11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!EZ12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!EZ13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!EZ14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!EZ15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!EZ16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!EZ17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!EZ18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!EZ19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!EZ20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!EZ21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!EZ22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!EZ23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!EZ24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!EZ25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!EZ26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!EZ27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!EZ28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!EZ29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!EZ30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!EZ31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!EZ32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!EZ33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!EZ34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!EZ35)*'شاخص‌های عمومی'!FL4</f>
+        <v>8</v>
+      </c>
+      <c r="EZ2" s="10" cm="1">
+        <f t="array" ref="EZ2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!FA4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!FA5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!FA6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!FA7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!FA8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!FA9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!FA10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!FA11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!FA12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!FA13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!FA14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!FA15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!FA16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!FA17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!FA18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!FA19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!FA20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!FA21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!FA22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!FA23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!FA24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!FA25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!FA26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!FA27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!FA28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!FA29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!FA30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!FA31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!FA32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!FA33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!FA34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!FA35)*'شاخص‌های عمومی'!FM4</f>
+        <v>15</v>
+      </c>
+      <c r="FA2" s="10" cm="1">
+        <f t="array" ref="FA2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!FB4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!FB5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!FB6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!FB7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!FB8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!FB9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!FB10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!FB11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!FB12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!FB13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!FB14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!FB15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!FB16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!FB17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!FB18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!FB19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!FB20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!FB21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!FB22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!FB23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!FB24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!FB25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!FB26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!FB27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!FB28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!FB29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!FB30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!FB31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!FB32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!FB33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!FB34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!FB35)*'شاخص‌های عمومی'!FN4</f>
+        <v>4</v>
+      </c>
+      <c r="FB2" s="10" cm="1">
+        <f t="array" ref="FB2">_xlfn.SWITCH('صفحه اصلی'!B4,'شاخص‌های عمومی'!A4,'شاخص‌های عمومی'!FC4,'شاخص‌های عمومی'!A5,'شاخص‌های عمومی'!FC5,'شاخص‌های عمومی'!A6,'شاخص‌های عمومی'!FC6,'شاخص‌های عمومی'!A7,'شاخص‌های عمومی'!FC7,'شاخص‌های عمومی'!A8,'شاخص‌های عمومی'!FC8,'شاخص‌های عمومی'!A9,'شاخص‌های عمومی'!FC9,'شاخص‌های عمومی'!A10,'شاخص‌های عمومی'!FC10,'شاخص‌های عمومی'!A11,'شاخص‌های عمومی'!FC11,'شاخص‌های عمومی'!A12,'شاخص‌های عمومی'!FC12,'شاخص‌های عمومی'!A13,'شاخص‌های عمومی'!FC13,'شاخص‌های عمومی'!A14,'شاخص‌های عمومی'!FC14,'شاخص‌های عمومی'!A15,'شاخص‌های عمومی'!FC15,'شاخص‌های عمومی'!A16,'شاخص‌های عمومی'!FC16,'شاخص‌های عمومی'!A17,'شاخص‌های عمومی'!FC17,'شاخص‌های عمومی'!A18,'شاخص‌های عمومی'!FC18,'شاخص‌های عمومی'!A19,'شاخص‌های عمومی'!FC19,'شاخص‌های عمومی'!A20,'شاخص‌های عمومی'!FC20,'شاخص‌های عمومی'!A21,'شاخص‌های عمومی'!FC21,'شاخص‌های عمومی'!A22,'شاخص‌های عمومی'!FC22,'شاخص‌های عمومی'!A23,'شاخص‌های عمومی'!FC23,'شاخص‌های عمومی'!A24,'شاخص‌های عمومی'!FC24,'شاخص‌های عمومی'!A25,'شاخص‌های عمومی'!FC25,'شاخص‌های عمومی'!A26,'شاخص‌های عمومی'!FC26,'شاخص‌های عمومی'!A27,'شاخص‌های عمومی'!FC27,'شاخص‌های عمومی'!A28,'شاخص‌های عمومی'!FC28,'شاخص‌های عمومی'!A29,'شاخص‌های عمومی'!FC29,'شاخص‌های عمومی'!A30,'شاخص‌های عمومی'!FC30,'شاخص‌های عمومی'!A31,'شاخص‌های عمومی'!FC31,'شاخص‌های عمومی'!A32,'شاخص‌های عمومی'!FC32,'شاخص‌های عمومی'!A33,'شاخص‌های عمومی'!FC33,'شاخص‌های عمومی'!A34,'شاخص‌های عمومی'!FC34,'شاخص‌های عمومی'!A35,'شاخص‌های عمومی'!FC35)*'شاخص‌های عمومی'!FO4</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
